--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail0 Features.xlsx
@@ -7296,7 +7296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7307,29 +7307,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7350,115 +7348,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7475,72 +7463,66 @@
         <v>3.807744129699611e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.768557099015629</v>
+        <v>2.028533993107443e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.191533425883508</v>
+        <v>3.974549091622955e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.028533993107443e-06</v>
+        <v>-0.08884806576771666</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.974549091622955e-06</v>
+        <v>0.1563313196066891</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08884806576771666</v>
+        <v>0.03226293868148445</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1563313196066891</v>
+        <v>1.875928945402152</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03226293868148445</v>
+        <v>1.852518219379435</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.881893406137017</v>
+        <v>4.84557655957268</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.852518219379435</v>
+        <v>4.266932428747286e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.84557655957268</v>
+        <v>476478585.4625761</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.266932428747286e-16</v>
+        <v>2.498350439094241e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>476478585.4625761</v>
+        <v>96.87295307136519</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.498350439094241e-07</v>
+        <v>0.0001551996499688379</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>96.87295307136519</v>
+        <v>10.13480760174519</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001551996499688379</v>
+        <v>1.202289540513573</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.13480760174519</v>
+        <v>0.01594122730609107</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.202289540513573</v>
+        <v>2.887243666659918</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01594122730609107</v>
+        <v>0.9543202722948366</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.887243666659918</v>
+        <v>1.467746784359295</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9543202722948366</v>
+        <v>112</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.467746784359295</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.521164433522101</v>
       </c>
     </row>
@@ -7555,72 +7537,66 @@
         <v>3.354577045228745e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.510796954398202</v>
+        <v>1.689601327801918e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.097294868150005</v>
+        <v>3.943710528076075e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.689601327801918e-06</v>
+        <v>-0.08399312497381783</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.943710528076075e-06</v>
+        <v>0.1287569691727436</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.08399312497381783</v>
+        <v>0.02358336610684314</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1287569691727436</v>
+        <v>1.875251966670035</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02358336610684314</v>
+        <v>1.987508533196716</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.883496497642527</v>
+        <v>4.671781263542787</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.987508533196716</v>
+        <v>3.897691994005646e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.671781263542787</v>
+        <v>523470240.3758291</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.897691994005646e-16</v>
+        <v>2.284691860472579e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>523470240.3758291</v>
+        <v>106.8049818656394</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.284691860472579e-07</v>
+        <v>0.0001701855744897967</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>106.8049818656394</v>
+        <v>11.21578291693089</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001701855744897967</v>
+        <v>1.132174316450727</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.21578291693089</v>
+        <v>0.02140828781249036</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.132174316450727</v>
+        <v>2.935423788185545</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02140828781249036</v>
+        <v>0.9545938506835017</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.935423788185545</v>
+        <v>1.450057545245548</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9545938506835017</v>
+        <v>117</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.450057545245548</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.7269204939896861</v>
       </c>
     </row>
@@ -7635,72 +7611,66 @@
         <v>3.028660906947469e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.312552516960554</v>
+        <v>1.444544103714947e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.380960339958603</v>
+        <v>3.917709979967546e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.444544103714947e-06</v>
+        <v>-0.07953055126541636</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.917709979967546e-06</v>
+        <v>0.1042209463555545</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07953055126541636</v>
+        <v>0.0171555834301471</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1042209463555545</v>
+        <v>1.890337747655315</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0171555834301471</v>
+        <v>2.111142225328373</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.906720919843053</v>
+        <v>4.666414720823492</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.111142225328373</v>
+        <v>3.906662117565715e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.666414720823492</v>
+        <v>537953903.4801576</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.906662117565715e-16</v>
+        <v>2.229492058254401e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>537953903.4801576</v>
+        <v>113.0566148381981</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.229492058254401e-07</v>
+        <v>0.0001696239692701285</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>113.0566148381981</v>
+        <v>9.345794929472474</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001696239692701285</v>
+        <v>1.541901224240044</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.345794929472474</v>
+        <v>0.01481561610281501</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.541901224240044</v>
+        <v>3.309171209700452</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01481561610281501</v>
+        <v>0.9548856774709704</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.309171209700452</v>
+        <v>1.363235920162998</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9548856774709704</v>
+        <v>120</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.363235920162998</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.9282218302818748</v>
       </c>
     </row>
@@ -7715,72 +7685,66 @@
         <v>2.786940029017686e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.162977797682275</v>
+        <v>1.277008639054343e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.9480080044019261</v>
+        <v>3.895128462960721e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.277008639054343e-06</v>
+        <v>-0.07639512393276562</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.895128462960721e-06</v>
+        <v>0.08703922530730981</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.07639512393276562</v>
+        <v>0.0133951386616115</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.08703922530730981</v>
+        <v>1.901423288007239</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0133951386616115</v>
+        <v>1.929014325318256</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.91941875387242</v>
+        <v>5.807789618682012</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.929014325318256</v>
+        <v>2.372802168451212e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.807789618682012</v>
+        <v>883830414.3193661</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.372802168451212e-16</v>
+        <v>1.358106877721638e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>883830414.3193661</v>
+        <v>185.3529128286667</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.358106877721638e-07</v>
+        <v>0.0001311798827411435</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>185.3529128286667</v>
+        <v>6.897343283438466</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001311798827411435</v>
+        <v>2.146890633004882</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.897343283438466</v>
+        <v>0.00624066573600734</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.146890633004882</v>
+        <v>3.643528683788979</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00624066573600734</v>
+        <v>0.9548780236589552</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.643528683788979</v>
+        <v>1.333081115606569</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9548780236589552</v>
+        <v>120</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.333081115606569</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.144181327008901</v>
       </c>
     </row>
@@ -7795,72 +7759,66 @@
         <v>2.59625297588418e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.035347540578897</v>
+        <v>1.16657059792888e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.6473149665812921</v>
+        <v>3.87481899153802e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.16657059792888e-06</v>
+        <v>-0.07490797859603987</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.87481899153802e-06</v>
+        <v>0.07844049296990081</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.07490797859603987</v>
+        <v>0.01175377274589839</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.07844049296990081</v>
+        <v>1.912305535513688</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01175377274589839</v>
+        <v>2.206026029364343</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.934701390079561</v>
+        <v>5.131308035446024</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.206026029364343</v>
+        <v>1.220383871367103e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.131308035446024</v>
+        <v>1715079476.13959</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.220383871367103e-16</v>
+        <v>7.018772359200761e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1715079476.13959</v>
+        <v>358.9756240268485</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.018772359200761e-08</v>
+        <v>0.0001219329950633249</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>358.9756240268485</v>
+        <v>7.496048764339823</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001219329950633249</v>
+        <v>1.314058512070667</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.496048764339823</v>
+        <v>0.006851506085988349</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.314058512070667</v>
+        <v>3.417427553767137</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006851506085988349</v>
+        <v>0.9565002524909607</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.417427553767137</v>
+        <v>1.301366153731434</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9565002524909607</v>
+        <v>138</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.301366153731434</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.9529953127008074</v>
       </c>
     </row>
@@ -7875,72 +7833,66 @@
         <v>2.438863838398201e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.913232946432223</v>
+        <v>1.079502162260242e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.3940383556621301</v>
+        <v>3.856121782476074e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.079502162260242e-06</v>
+        <v>-0.07378864508025589</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.856121782476074e-06</v>
+        <v>0.0719961465185186</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.07378864508025589</v>
+        <v>0.0106196740247036</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.0719961465185186</v>
+        <v>1.923379136820792</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0106196740247036</v>
+        <v>2.721813827032222</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.945859717833825</v>
+        <v>5.433082081603067</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.721813827032222</v>
+        <v>1.088579369862935e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.433082081603067</v>
+        <v>1933924123.542037</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.088579369862935e-16</v>
+        <v>6.239887104489044e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1933924123.542037</v>
+        <v>407.1354896499248</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.239887104489044e-08</v>
+        <v>0.0001245773787758237</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>407.1354896499248</v>
+        <v>8.071032488452394</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001245773787758237</v>
+        <v>1.279056000678788</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.071032488452394</v>
+        <v>0.008115165470580114</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.279056000678788</v>
+        <v>3.260956198939957</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008115165470580114</v>
+        <v>0.9563275060751307</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.260956198939957</v>
+        <v>1.257532221653131</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9563275060751307</v>
+        <v>148</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.257532221653131</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.798130947759767</v>
       </c>
     </row>
@@ -7955,72 +7907,66 @@
         <v>2.308017404611862e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7955676197880126</v>
+        <v>1.008692113547956e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.1766652060292611</v>
+        <v>3.838745290180241e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.008692113547956e-06</v>
+        <v>-0.07285369181943543</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.838745290180241e-06</v>
+        <v>0.06696116184611615</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07285369181943543</v>
+        <v>0.009785591207503688</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06696116184611615</v>
+        <v>1.928225897211954</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.009785591207503688</v>
+        <v>2.56731730569341</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.952344957747904</v>
+        <v>5.352904190645754</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.56731730569341</v>
+        <v>1.121433929497748e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.352904190645754</v>
+        <v>1868226285.843729</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.121433929497748e-16</v>
+        <v>6.4415533743818e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1868226285.843729</v>
+        <v>391.4106590058334</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.4415533743818e-08</v>
+        <v>0.0001239993167533718</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>391.4106590058334</v>
+        <v>8.217422298885806</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001239993167533718</v>
+        <v>1.255620865226884</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.217422298885806</v>
+        <v>0.008373181488608192</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.255620865226884</v>
+        <v>3.210055056158692</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008373181488608192</v>
+        <v>0.9567680452226363</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.210055056158692</v>
+        <v>1.259375209377592</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9567680452226363</v>
+        <v>138</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.259375209377592</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.7423240004119543</v>
       </c>
     </row>
@@ -8035,72 +7981,66 @@
         <v>2.196460717046811e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6768659340928467</v>
+        <v>9.546197245597529e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.03357374525927481</v>
+        <v>3.822404344489757e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.546197245597529e-07</v>
+        <v>-0.07244648311210924</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.822404344489757e-06</v>
+        <v>0.06457509878850096</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.07244648311210924</v>
+        <v>0.009414581041480361</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.06457509878850096</v>
+        <v>1.921293559800981</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.009414581041480361</v>
+        <v>2.469956480553978</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.942611449944581</v>
+        <v>5.172029565653055</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.469956480553978</v>
+        <v>1.201242348736404e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.172029565653055</v>
+        <v>1684231245.75242</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.201242348736404e-16</v>
+        <v>7.11599639162361e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1684231245.75242</v>
+        <v>340.7485956772695</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.11599639162361e-08</v>
+        <v>0.0001260153607769007</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>340.7485956772695</v>
+        <v>8.077932099051395</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001260153607769007</v>
+        <v>1.250829151655483</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.077932099051395</v>
+        <v>0.008222878698182856</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.250829151655483</v>
+        <v>3.241244104667901</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008222878698182856</v>
+        <v>0.9601052011726359</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.241244104667901</v>
+        <v>1.267131049907782</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9601052011726359</v>
+        <v>132</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.267131049907782</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.7042766934675301</v>
       </c>
     </row>
@@ -8115,72 +8055,66 @@
         <v>2.098547293908799e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5515704434446441</v>
+        <v>9.062412885260402e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.2663301167861363</v>
+        <v>3.806892812098595e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.062412885260402e-07</v>
+        <v>-0.07198473739154987</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.806892812098595e-06</v>
+        <v>0.06280565774274295</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07198473739154987</v>
+        <v>0.009121916230510233</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.06280565774274295</v>
+        <v>1.920389460274503</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.009121916230510233</v>
+        <v>2.591513588874208</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.942664246797982</v>
+        <v>4.910347694236254</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.591513588874208</v>
+        <v>1.332686941516877e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.910347694236254</v>
+        <v>1512499427.461203</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.332686941516877e-16</v>
+        <v>7.915894338332818e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1512499427.461203</v>
+        <v>304.8727302934598</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.915894338332818e-08</v>
+        <v>0.0001448591155246774</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>304.8727302934598</v>
+        <v>7.91045490905222</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001448591155246774</v>
+        <v>1.484512854080482</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.91045490905222</v>
+        <v>0.009064602158014089</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.484512854080482</v>
+        <v>3.221209675788999</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009064602158014089</v>
+        <v>0.9600067738535321</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.221209675788999</v>
+        <v>1.252505183637422</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9600067738535321</v>
+        <v>129</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.252505183637422</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.6174124169286045</v>
       </c>
     </row>
@@ -8195,72 +8129,66 @@
         <v>2.014611859225605e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.4285139409720123</v>
+        <v>8.523803492319437e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5018978856701013</v>
+        <v>3.792230936944493e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.523803492319437e-07</v>
+        <v>-0.07052918528964465</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.792230936944493e-06</v>
+        <v>0.05868656975862706</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.07052918528964465</v>
+        <v>0.008412986979657264</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05868656975862706</v>
+        <v>1.915616798133442</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.008412986979657264</v>
+        <v>2.535972734085725</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.938351733639651</v>
+        <v>4.811552175255044</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.535972734085725</v>
+        <v>1.387976883458508e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.811552175255044</v>
+        <v>1470396644.188187</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.387976883458508e-16</v>
+        <v>8.14519422790654e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1470396644.188187</v>
+        <v>300.0898032745824</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.14519422790654e-08</v>
+        <v>0.0001467955069421843</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>300.0898032745824</v>
+        <v>8.898208530071301</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001467955069421843</v>
+        <v>1.268541651523293</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.898208530071301</v>
+        <v>0.01162299153670359</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.268541651523293</v>
+        <v>3.125380999231195</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01162299153670359</v>
+        <v>0.961281548875235</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.125380999231195</v>
+        <v>1.236827261695667</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.961281548875235</v>
+        <v>119</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.236827261695667</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.6436391437591493</v>
       </c>
     </row>
@@ -8275,72 +8203,66 @@
         <v>1.946334218869721e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3221735713233921</v>
+        <v>7.985469842196071e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7019336991914362</v>
+        <v>3.778479715660986e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.985469842196071e-07</v>
+        <v>-0.06839313811069339</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.778479715660986e-06</v>
+        <v>0.05258604624003996</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06839313811069339</v>
+        <v>0.007437707089803879</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05258604624003996</v>
+        <v>1.915224225522331</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.007437707089803879</v>
+        <v>2.511463068097443</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.933770763919938</v>
+        <v>4.709329844561282</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.511463068097443</v>
+        <v>1.448886655733302e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.709329844561282</v>
+        <v>1403973108.726109</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.448886655733302e-16</v>
+        <v>8.520857713265288e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1403973108.726109</v>
+        <v>285.5959152574351</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.520857713265288e-08</v>
+        <v>0.0001408648179475879</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>285.5959152574351</v>
+        <v>9.732980283963771</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001408648179475879</v>
+        <v>1.14289920365848</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.732980283963771</v>
+        <v>0.013344251716139</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.14289920365848</v>
+        <v>2.998200622219191</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.013344251716139</v>
+        <v>0.9622946043897636</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.998200622219191</v>
+        <v>1.286302576223479</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9622946043897636</v>
+        <v>114</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.286302576223479</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.6967765811601779</v>
       </c>
     </row>
@@ -8355,72 +8277,66 @@
         <v>1.892912724250215e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2384315890841523</v>
+        <v>7.515512534435872e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8533718690212497</v>
+        <v>3.765573312695932e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.515512534435872e-07</v>
+        <v>-0.06618373265303233</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.765573312695932e-06</v>
+        <v>0.04626143462975922</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06618373265303233</v>
+        <v>0.006516231628159518</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04626143462975922</v>
+        <v>1.918313620708876</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.006516231628159518</v>
+        <v>2.641351548872168</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.932023018866908</v>
+        <v>4.601534180554625</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.641351548872168</v>
+        <v>1.517565089795621e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.601534180554625</v>
+        <v>1347136464.182073</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.517565089795621e-16</v>
+        <v>8.905786698992266e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1347136464.182073</v>
+        <v>275.4041694564675</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.905786698992266e-08</v>
+        <v>0.0001365887604297918</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>275.4041694564675</v>
+        <v>8.513144793384834</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001365887604297918</v>
+        <v>1.2415238956434</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.513144793384834</v>
+        <v>0.009899083869209626</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.2415238956434</v>
+        <v>3.154113428460773</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.009899083869209626</v>
+        <v>0.9608280119307044</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.154113428460773</v>
+        <v>1.29788859349013</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9608280119307044</v>
+        <v>99</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.29788859349013</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.6277949117380488</v>
       </c>
     </row>
@@ -8435,72 +8351,66 @@
         <v>1.851979542452306e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1765710757665453</v>
+        <v>7.117102194194539e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.9612272783241491</v>
+        <v>3.753387711794991e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.117102194194539e-07</v>
+        <v>-0.06405916653551685</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.753387711794991e-06</v>
+        <v>0.04058874073569372</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06405916653551685</v>
+        <v>0.005747764563616844</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04058874073569372</v>
+        <v>1.922919586087583</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005747764563616844</v>
+        <v>2.613470043387871</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.930802648319895</v>
+        <v>4.594984833758187</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.613470043387871</v>
+        <v>1.521894219755572e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.594984833758187</v>
+        <v>1381560234.508022</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.521894219755572e-16</v>
+        <v>8.706985090761355e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1381560234.508022</v>
+        <v>290.4852709684536</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.706985090761355e-08</v>
+        <v>0.0001373174730833016</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>290.4852709684536</v>
+        <v>8.08855217470288</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001373174730833016</v>
+        <v>1.330612972585847</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.08855217470288</v>
+        <v>0.008983951224459559</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.330612972585847</v>
+        <v>3.187925658597321</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008983951224459559</v>
+        <v>0.9616084151086891</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.187925658597321</v>
+        <v>1.284341897447812</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9616084151086891</v>
+        <v>101</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.284341897447812</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.6127745264259022</v>
       </c>
     </row>
@@ -8515,72 +8425,66 @@
         <v>1.82102701596517e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1345790136577378</v>
+        <v>6.768195208324831e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.033728022259861</v>
+        <v>3.741822557182328e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.768195208324831e-07</v>
+        <v>-0.06195237742895652</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.741822557182328e-06</v>
+        <v>0.03569176633633755</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06195237742895652</v>
+        <v>0.005109579045445428</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.03569176633633755</v>
+        <v>1.92874881906925</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005109579045445428</v>
+        <v>2.630075946301766</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.936932967653474</v>
+        <v>4.442331351837725</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.630075946301766</v>
+        <v>1.628286167760262e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.442331351837725</v>
+        <v>1297644087.284042</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.628286167760262e-16</v>
+        <v>9.287404483059837e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1297644087.284042</v>
+        <v>274.1838800803422</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.287404483059837e-08</v>
+        <v>0.0001388903992042682</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>274.1838800803422</v>
+        <v>8.289550799170575</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001388903992042682</v>
+        <v>1.329227184176622</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.289550799170575</v>
+        <v>0.009544083291043334</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.329227184176622</v>
+        <v>3.189384807780468</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.009544083291043334</v>
+        <v>0.961574694313581</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.189384807780468</v>
+        <v>1.291609789810972</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.961574694313581</v>
+        <v>68</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.291609789810972</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.6409982267435679</v>
       </c>
     </row>
@@ -8595,72 +8499,66 @@
         <v>1.797484406117471e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.1100908183897872</v>
+        <v>6.460174658458517e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.079738872367689</v>
+        <v>3.730804399891376e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.460174658458517e-07</v>
+        <v>-0.05990482495545288</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.730804399891376e-06</v>
+        <v>0.03214023533108981</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05990482495545288</v>
+        <v>0.004620017389668904</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.03214023533108981</v>
+        <v>1.934415537747666</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004620017389668904</v>
+        <v>2.364306990169912</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.94178960480843</v>
+        <v>4.371013829433863</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.364306990169912</v>
+        <v>1.915698423471888e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.371013829433863</v>
+        <v>1100703682.778375</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.915698423471888e-16</v>
+        <v>1.094912129260678e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1100703682.778375</v>
+        <v>232.0961737772469</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.094912129260678e-07</v>
+        <v>0.0001415592198025601</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>232.0961737772469</v>
+        <v>9.057874300697703</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001415592198025601</v>
+        <v>1.233395677552388</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.057874300697703</v>
+        <v>0.01161423848272857</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.233395677552388</v>
+        <v>3.155671912444207</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01161423848272857</v>
+        <v>0.9614860495165182</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.155671912444207</v>
+        <v>1.298394621517744</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9614860495165182</v>
+        <v>68</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.298394621517744</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.7235345517367315</v>
       </c>
     </row>
@@ -8675,72 +8573,66 @@
         <v>1.778490019638199e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1000932281394042</v>
+        <v>6.188919738922739e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.108684384108225</v>
+        <v>3.720268167602559e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.188919738922739e-07</v>
+        <v>-0.057989370052049</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.720268167602559e-06</v>
+        <v>0.03058863028984718</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.057989370052049</v>
+        <v>0.004297548373736928</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.03058863028984718</v>
+        <v>1.933917267464607</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004297548373736928</v>
+        <v>2.241732051652394</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.941130885699465</v>
+        <v>4.676224765053743</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.241732051652394</v>
+        <v>2.506391507769625e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.676224765053743</v>
+        <v>842804845.2384557</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.506391507769625e-16</v>
+        <v>1.429367896069124e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>842804845.2384557</v>
+        <v>178.034003373821</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.429367896069124e-07</v>
+        <v>0.0001600262789721259</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>178.034003373821</v>
+        <v>9.855379629645443</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001600262789721259</v>
+        <v>1.211757181005898</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.855379629645443</v>
+        <v>0.01554311366045387</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.211757181005898</v>
+        <v>3.038623805071211</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01554311366045387</v>
+        <v>0.9611284768729877</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.038623805071211</v>
+        <v>1.30904504683933</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9611284768729877</v>
+        <v>68</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.30904504683933</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.7222866308135744</v>
       </c>
     </row>
@@ -8755,72 +8647,66 @@
         <v>1.761263647147689e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.102195204627465</v>
+        <v>5.951113588042569e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.127707435329203</v>
+        <v>3.710178451699783e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.951113588042569e-07</v>
+        <v>-0.05597783081963169</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.710178451699783e-06</v>
+        <v>0.03086498815952126</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05597783081963169</v>
+        <v>0.004085434462633345</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.03086498815952126</v>
+        <v>1.935871857149622</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004085434462633345</v>
+        <v>2.105239046647295</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.946345555970262</v>
+        <v>4.641011201142995</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.105239046647295</v>
+        <v>3.803843708767271e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.641011201142995</v>
+        <v>541864803.4921302</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.803843708767271e-16</v>
+        <v>2.219597322450577e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>541864803.4921302</v>
+        <v>111.6874948027004</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.219597322450577e-07</v>
+        <v>0.0002013839271681935</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>111.6874948027004</v>
+        <v>9.973622127156503</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002013839271681935</v>
+        <v>1.371716340090759</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.973622127156503</v>
+        <v>0.02003229124570886</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.371716340090759</v>
+        <v>2.825245891549466</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02003229124570886</v>
+        <v>0.9622643616175125</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.825245891549466</v>
+        <v>1.269557033242308</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9622643616175125</v>
+        <v>63</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.269557033242308</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.5753531652645826</v>
       </c>
     </row>
@@ -8835,72 +8721,66 @@
         <v>1.743684510753382e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.1159009059471326</v>
+        <v>5.744442506476657e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.139090545899153</v>
+        <v>3.700566297086368e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.744442506476657e-07</v>
+        <v>-0.05365575870414912</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.700566297086368e-06</v>
+        <v>0.03326755240093834</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05365575870414912</v>
+        <v>0.003984955001307469</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.03326755240093834</v>
+        <v>1.930627380955497</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003984955001307469</v>
+        <v>1.854634330170588</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.94258676388897</v>
+        <v>4.478614880497198</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.854634330170588</v>
+        <v>5.447143439490287e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.478614880497198</v>
+        <v>370848509.8444104</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.447143439490287e-16</v>
+        <v>3.233032584869499e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>370848509.8444104</v>
+        <v>74.9138105216315</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.233032584869499e-07</v>
+        <v>0.000211237033189562</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>74.9138105216315</v>
+        <v>11.09227747753395</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.000211237033189562</v>
+        <v>1.241919870150729</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>11.09227747753395</v>
+        <v>0.02599031298019829</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.241919870150729</v>
+        <v>2.689535555194383</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02599031298019829</v>
+        <v>0.9622703323135109</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.689535555194383</v>
+        <v>1.259329205192224</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9622703323135109</v>
+        <v>59</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.259329205192224</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.5246978585422649</v>
       </c>
     </row>
@@ -8915,72 +8795,66 @@
         <v>1.72329059748795e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.13998620966219</v>
+        <v>5.591968329536477e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.143626076115968</v>
+        <v>3.691477680540082e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.591968329536477e-07</v>
+        <v>-0.05113969533328151</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.691477680540082e-06</v>
+        <v>0.03878329005362817</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05113969533328151</v>
+        <v>0.004118403055687432</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.03878329005362817</v>
+        <v>1.921525617893184</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004118403055687432</v>
+        <v>1.790270011281021</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.928260184116831</v>
+        <v>4.37733524822903</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.790270011281021</v>
+        <v>7.932226439772533e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.37733524822903</v>
+        <v>252714048.9790395</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>7.932226439772533e-16</v>
+        <v>4.745065865678284e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>252714048.9790395</v>
+        <v>50.65868072916184</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.745065865678284e-07</v>
+        <v>0.0001986914911039649</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>50.65868072916184</v>
+        <v>12.59938734023167</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001986914911039649</v>
+        <v>1.058548731209619</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>12.59938734023167</v>
+        <v>0.03154119359911538</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.058548731209619</v>
+        <v>2.644455273480943</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.03154119359911538</v>
+        <v>0.9639383917827261</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.644455273480943</v>
+        <v>1.274171556868942</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9639383917827261</v>
+        <v>59</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.274171556868942</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.5077211318434863</v>
       </c>
     </row>
@@ -8995,72 +8869,66 @@
         <v>1.696879296232506e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1706980230289335</v>
+        <v>5.548869518231049e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.141961395884198</v>
+        <v>3.682949603867806e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.548869518231049e-07</v>
+        <v>-0.04853394498480283</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.682949603867806e-06</v>
+        <v>0.04785888734454219</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04853394498480283</v>
+        <v>0.004644072357021893</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.04785888734454219</v>
+        <v>1.886452648627062</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004644072357021893</v>
+        <v>1.789819471726434</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.886162670856661</v>
+        <v>4.04875109829319</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.789819471726434</v>
+        <v>1.084659388555016e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.04875109829319</v>
+        <v>185534995.1504279</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.084659388555016e-15</v>
+        <v>6.382112926972739e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>185534995.1504279</v>
+        <v>37.33748440401551</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.382112926972739e-07</v>
+        <v>0.0001944456636665917</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>37.33748440401551</v>
+        <v>13.17729088792021</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001944456636665917</v>
+        <v>0.9879279477009023</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>13.17729088792021</v>
+        <v>0.03376373854067068</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.9879279477009023</v>
+        <v>2.549552744745185</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.03376373854067068</v>
+        <v>0.9639577674519609</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.549552744745185</v>
+        <v>1.347496390391003</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9639577674519609</v>
+        <v>41</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.347496390391003</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.4519641507877363</v>
       </c>
     </row>
@@ -9075,72 +8943,66 @@
         <v>1.6613872986628e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.2001005564839509</v>
+        <v>5.548869518231049e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.137831269575175</v>
+        <v>3.674971505195778e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.548869518231049e-07</v>
+        <v>-0.04663367971911683</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.674971505195778e-06</v>
+        <v>0.05681556139512628</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04663367971911683</v>
+        <v>0.005401264700547034</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.05681556139512628</v>
+        <v>1.800032419859205</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005401264700547034</v>
+        <v>1.791391564624788</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.768096020555995</v>
+        <v>5.775179439591099</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.791391564624788</v>
+        <v>1.569798380003194e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.775179439591099</v>
+        <v>130233440.0782465</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.569798380003194e-15</v>
+        <v>8.893413938218643e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>130233440.0782465</v>
+        <v>26.62495616980231</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>8.893413938218643e-07</v>
+        <v>0.0002106959419807573</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>26.62495616980231</v>
+        <v>11.03138088770172</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002106959419807573</v>
+        <v>1.278946478457232</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.03138088770172</v>
+        <v>0.02563987662991037</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.278946478457232</v>
+        <v>2.679997931079184</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02563987662991037</v>
+        <v>0.9597649204788907</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.679997931079184</v>
+        <v>1.669893805556152</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9597649204788907</v>
+        <v>27</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.669893805556152</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3297779749573979</v>
       </c>
     </row>
@@ -9155,72 +9017,66 @@
         <v>1.616551093750122e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.218376141781089</v>
+        <v>5.544340784752946e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.14455795973713</v>
+        <v>3.667390769366543e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.544340784752946e-07</v>
+        <v>-0.04589064289020373</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.667390769366543e-06</v>
+        <v>0.06237968782198762</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04589064289020373</v>
+        <v>0.00599680071266465</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.06237968782198762</v>
+        <v>1.804360384468983</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.00599680071266465</v>
+        <v>1.725401588138329</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.76799928257266</v>
+        <v>4.675582823621607</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.725401588138329</v>
+        <v>2.74431040548116e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.675582823621607</v>
+        <v>75539597.7080006</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.74431040548116e-15</v>
+        <v>1.537444983903281e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>75539597.7080006</v>
+        <v>15.65966862058063</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.537444983903281e-06</v>
+        <v>0.0002284468246122203</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>15.65966862058063</v>
+        <v>9.205262752035186</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002284468246122203</v>
+        <v>1.796085319428732</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.205262752035186</v>
+        <v>0.01935786712780662</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.796085319428732</v>
+        <v>2.79787518917517</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01935786712780662</v>
+        <v>0.9596420304955559</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.79787518917517</v>
+        <v>1.685107630464404</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9596420304955559</v>
+        <v>27</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.685107630464404</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2022149528445669</v>
       </c>
     </row>
@@ -9235,72 +9091,66 @@
         <v>1.566222796581459e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.2249944190943698</v>
+        <v>5.450842007629276e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.168834476796389</v>
+        <v>3.660124248291722e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.450842007629276e-07</v>
+        <v>-0.04549493770857853</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.660124248291722e-06</v>
+        <v>0.06567782674228938</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04549493770857853</v>
+        <v>0.006383087350907461</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.06567782674228938</v>
+        <v>1.796768358922905</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.006383087350907461</v>
+        <v>1.624076576812094</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.753364440554783</v>
+        <v>4.230867654288409</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.624076576812094</v>
+        <v>4.640928361715759e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.230867654288409</v>
+        <v>45765193.70244994</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.640928361715759e-15</v>
+        <v>2.538455828495752e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45765193.70244994</v>
+        <v>9.720206119388154</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.538455828495752e-06</v>
+        <v>0.0001897700659792176</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>9.720206119388154</v>
+        <v>9.329930919445721</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001897700659792176</v>
+        <v>1.596790434955851</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.329930919445721</v>
+        <v>0.01651903087552165</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.596790434955851</v>
+        <v>2.877222306273954</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01651903087552165</v>
+        <v>0.9575968345612168</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.877222306273954</v>
+        <v>1.722913843013547</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9575968345612168</v>
+        <v>27</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.722913843013547</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1634349141046205</v>
       </c>
     </row>
@@ -9315,72 +9165,66 @@
         <v>1.51566518871425e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.2278798201748012</v>
+        <v>5.280591604735928e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.20309062171571</v>
+        <v>3.653098708476546e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.280591604735928e-07</v>
+        <v>-0.04583134205327648</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.653098708476546e-06</v>
+        <v>0.06739034871677434</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04583134205327648</v>
+        <v>0.006640859399848206</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.06739034871677434</v>
+        <v>1.770227048240063</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.006640859399848206</v>
+        <v>1.619746085101142</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.717631191750343</v>
+        <v>3.844617289058038</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.619746085101142</v>
+        <v>5.620274353523087e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.844617289058038</v>
+        <v>37861399.55268986</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.620274353523087e-15</v>
+        <v>3.048153066345328e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>37861399.55268986</v>
+        <v>8.056582219435036</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.048153066345328e-06</v>
+        <v>0.0001671428226928321</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>8.056582219435036</v>
+        <v>10.41336933016004</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001671428226928321</v>
+        <v>1.18003498642906</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.41336933016004</v>
+        <v>0.01812467699906944</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.18003498642906</v>
+        <v>2.774516181311052</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01812467699906944</v>
+        <v>0.9570248928328119</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.774516181311052</v>
+        <v>1.718498712586165</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9570248928328119</v>
+        <v>27</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.718498712586165</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1611120578385085</v>
       </c>
     </row>
@@ -9395,72 +9239,66 @@
         <v>1.468075633610514e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.2336219760849789</v>
+        <v>5.076320191407021e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.239687722718157</v>
+        <v>3.646209611389258e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.076320191407021e-07</v>
+        <v>-0.04658308641519685</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.646209611389258e-06</v>
+        <v>0.06883659920593847</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04658308641519685</v>
+        <v>0.006906596169843003</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.06883659920593847</v>
+        <v>1.758525193869886</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.006906596169843003</v>
+        <v>1.650241020732231</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.698309708057473</v>
+        <v>3.81285754337514</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.650241020732231</v>
+        <v>5.714294073118788e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.81285754337514</v>
+        <v>36853887.54064202</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5.714294073118788e-15</v>
+        <v>3.115095411913052e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>36853887.54064202</v>
+        <v>7.761205792232759</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.115095411913052e-06</v>
+        <v>0.0001743520461860609</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>7.761205792232759</v>
+        <v>11.51618813751657</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001743520461860609</v>
+        <v>1.07784917894515</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.51618813751657</v>
+        <v>0.02312301980076983</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.07784917894515</v>
+        <v>2.516518576002504</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02312301980076983</v>
+        <v>0.9554833380718167</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.516518576002504</v>
+        <v>1.741731910175448</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9554833380718167</v>
+        <v>27</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.741731910175448</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1641651596727556</v>
       </c>
     </row>
@@ -9475,72 +9313,66 @@
         <v>1.425127429518197e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.2462286632540334</v>
+        <v>4.855680458055204e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.270845352942624</v>
+        <v>3.639422872698294e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.855680458055204e-07</v>
+        <v>-0.04727211298678091</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.639422872698294e-06</v>
+        <v>0.07004134027330282</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04727211298678091</v>
+        <v>0.007138367264256133</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.07004134027330282</v>
+        <v>1.75292446213593</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.007138367264256133</v>
+        <v>1.670748014776233</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.691174264057248</v>
+        <v>3.811241986987076</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.670748014776233</v>
+        <v>5.719139591173971e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.811241986987076</v>
+        <v>36624071.17197651</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.719139591173971e-15</v>
+        <v>3.130485552354774e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>36624071.17197651</v>
+        <v>7.671211124486899</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.130485552354774e-06</v>
+        <v>0.0001810553855410864</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>7.671211124486899</v>
+        <v>11.13633509019128</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001810553855410864</v>
+        <v>1.122015149781831</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.13633509019128</v>
+        <v>0.02245411942440263</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.122015149781831</v>
+        <v>2.558033919276911</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02245411942440263</v>
+        <v>0.9534231826735703</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.558033919276911</v>
+        <v>1.764012354771449</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9534231826735703</v>
+        <v>31</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.764012354771449</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1581848959944999</v>
       </c>
     </row>
@@ -9555,72 +9387,66 @@
         <v>1.387354705086548e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.267143172875645</v>
+        <v>4.641036148460399e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.290557352650295</v>
+        <v>3.632741365493873e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.641036148460399e-07</v>
+        <v>-0.04777976684458627</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.632741365493873e-06</v>
+        <v>0.07104137536181734</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.04777976684458627</v>
+        <v>0.007327967241671967</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.07104137536181734</v>
+        <v>1.748439983892223</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.007327967241671967</v>
+        <v>1.646212005304425</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.688867536876225</v>
+        <v>3.801281503049723</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.646212005304425</v>
+        <v>5.749150539376071e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.801281503049723</v>
+        <v>35748251.11200443</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.749150539376071e-15</v>
+        <v>3.188270617052432e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>35748251.11200443</v>
+        <v>7.347054823459777</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.188270617052432e-06</v>
+        <v>0.0001915248923821264</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>7.347054823459777</v>
+        <v>9.594156503245971</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001915248923821264</v>
+        <v>1.353797809623047</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.594156503245971</v>
+        <v>0.01762945246016331</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.353797809623047</v>
+        <v>2.691407132218095</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01762945246016331</v>
+        <v>0.9537277057129627</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.691407132218095</v>
+        <v>1.752362686631292</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9537277057129627</v>
+        <v>25</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.752362686631292</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1455995133732322</v>
       </c>
     </row>
@@ -9635,72 +9461,66 @@
         <v>1.354393175395373e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2955757292414526</v>
+        <v>4.447516343574789e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.296459041482493</v>
+        <v>3.626161455638569e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.447516343574789e-07</v>
+        <v>-0.04830032680966261</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.626161455638569e-06</v>
+        <v>0.07210130443189683</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.04830032680966261</v>
+        <v>0.007529932710355438</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.07210130443189683</v>
+        <v>1.737803590972985</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.007529932710355438</v>
+        <v>1.61410363928578</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.677980506847704</v>
+        <v>3.802509391548569</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.61410363928578</v>
+        <v>5.745438161407701e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.802509391548569</v>
+        <v>34776193.28854749</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.745438161407701e-15</v>
+        <v>3.256705223931935e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>34776193.28854749</v>
+        <v>6.948438800074907</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.256705223931935e-06</v>
+        <v>0.0001914983695530461</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>6.948438800074907</v>
+        <v>9.057996834652682</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001914983695530461</v>
+        <v>1.506277846905417</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.057996834652682</v>
+        <v>0.01571192545095347</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.506277846905417</v>
+        <v>2.77290104499716</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01571192545095347</v>
+        <v>0.9554748381759043</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.77290104499716</v>
+        <v>1.745579703224831</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9554748381759043</v>
+        <v>13</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.745579703224831</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1425670077230794</v>
       </c>
     </row>
@@ -9715,72 +9535,66 @@
         <v>1.325695247660918e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.3294940205520867</v>
+        <v>4.280727329995441e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.288845655799587</v>
+        <v>3.61964178616532e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.280727329995441e-07</v>
+        <v>-0.0490894351704565</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.61964178616532e-06</v>
+        <v>0.07341775663539599</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.0490894351704565</v>
+        <v>0.007798594947301</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.07341775663539599</v>
+        <v>1.728005204285561</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.007798594947301</v>
+        <v>1.589600373594096</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.669590621299628</v>
+        <v>3.8128077346008</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.589600373594096</v>
+        <v>5.714443371936298e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.8128077346008</v>
+        <v>34609186.23228204</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.714443371936298e-15</v>
+        <v>3.260816596130929e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>34609186.23228204</v>
+        <v>6.844736108300268</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.260816596130929e-06</v>
+        <v>0.0001722743859338193</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>6.844736108300268</v>
+        <v>10.14370302619232</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001722743859338193</v>
+        <v>1.200390026129364</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.14370302619232</v>
+        <v>0.01772612316776206</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.200390026129364</v>
+        <v>2.722666341392666</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01772612316776206</v>
+        <v>0.955497647999583</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.722666341392666</v>
+        <v>1.764787900067808</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.955497647999583</v>
+        <v>20</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.764787900067808</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1515558915173978</v>
       </c>
     </row>
@@ -9795,72 +9609,66 @@
         <v>1.3006233495572e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.3663970991908711</v>
+        <v>4.141800433679108e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.268704071361934</v>
+        <v>3.613137040369505e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.141800433679108e-07</v>
+        <v>-0.05003600226120426</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.613137040369505e-06</v>
+        <v>0.07482950221792824</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05003600226120426</v>
+        <v>0.008102141657082269</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.07482950221792824</v>
+        <v>1.726920635243962</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.008102141657082269</v>
+        <v>1.571965400349928</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.669320872342952</v>
+        <v>3.825806673840959</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.571965400349928</v>
+        <v>5.675677425261483e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.825806673840959</v>
+        <v>35631706.6677013</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.675677425261483e-15</v>
+        <v>3.177150474999631e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>35631706.6677013</v>
+        <v>7.205945172959326</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>3.177150474999631e-06</v>
+        <v>0.0001780122515846526</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>7.205945172959326</v>
+        <v>11.51868113300268</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001780122515846526</v>
+        <v>1.08107973850087</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.51868113300268</v>
+        <v>0.02361866821823097</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.08107973850087</v>
+        <v>2.465142517273927</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02361866821823097</v>
+        <v>0.9551762062583544</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.465142517273927</v>
+        <v>1.764453264839661</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9551762062583544</v>
+        <v>20</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.764453264839661</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1583037745975041</v>
       </c>
     </row>
@@ -9875,72 +9683,66 @@
         <v>1.278194506512439e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4039611968675025</v>
+        <v>4.029058311371703e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.237497350924248</v>
+        <v>3.606624406105327e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.029058311371703e-07</v>
+        <v>-0.05098373409626395</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.606624406105327e-06</v>
+        <v>0.0761803450747893</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05098373409626395</v>
+        <v>0.008402237218270953</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.0761803450747893</v>
+        <v>1.722058785809417</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.008402237218270953</v>
+        <v>1.547289892386316</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.665545397914447</v>
+        <v>3.84900717774157</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.547289892386316</v>
+        <v>5.607461538211235e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.84900717774157</v>
+        <v>35703732.57112546</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>5.607461538211235e-15</v>
+        <v>3.16902995168955e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>35703732.57112546</v>
+        <v>7.148148153738837</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.16902995168955e-06</v>
+        <v>0.0001810142279528651</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>7.148148153738837</v>
+        <v>11.17317890841766</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001810142279528651</v>
+        <v>1.108294358385725</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.17317890841766</v>
+        <v>0.02259780298902706</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.108294358385725</v>
+        <v>2.540105150445219</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02259780298902706</v>
+        <v>0.9562209612260797</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.540105150445219</v>
+        <v>1.757946487610862</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9562209612260797</v>
+        <v>20</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.757946487610862</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1550037520512139</v>
       </c>
     </row>
@@ -9955,72 +9757,66 @@
         <v>1.257434921595641e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.4410991853537299</v>
+        <v>3.931333743536357e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.19618600639316</v>
+        <v>3.600112306133658e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>3.931333743536357e-07</v>
+        <v>-0.05172849412603212</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.600112306133658e-06</v>
+        <v>0.07741272581050053</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05172849412603212</v>
+        <v>0.00866836409211146</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.07741272581050053</v>
+        <v>1.73143926823572</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.00866836409211146</v>
+        <v>1.533242775681576</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.675111862645274</v>
+        <v>3.900744904751447</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.533242775681576</v>
+        <v>5.459698314265126e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.900744904751447</v>
+        <v>37496396.74567261</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>5.459698314265126e-15</v>
+        <v>3.035952474633108e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>37496396.74567261</v>
+        <v>7.676225374202727</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>3.035952474633108e-06</v>
+        <v>0.0001875713496859948</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>7.676225374202727</v>
+        <v>9.789630042831032</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001875713496859948</v>
+        <v>1.297182918243909</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.789630042831032</v>
+        <v>0.01797624850001536</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.297182918243909</v>
+        <v>2.676961870615035</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01797624850001536</v>
+        <v>0.9560214805002268</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.676961870615035</v>
+        <v>1.761048063397391</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9560214805002268</v>
+        <v>20</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.761048063397391</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1484752090000436</v>
       </c>
     </row>
@@ -10035,72 +9831,66 @@
         <v>1.23725366932924e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.4774403069623334</v>
+        <v>3.891816668998516e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.146382714051486</v>
+        <v>3.593618207684272e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>3.891816668998516e-07</v>
+        <v>-0.05242463709447576</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.593618207684272e-06</v>
+        <v>0.07866703781337386</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05242463709447576</v>
+        <v>0.008936927470805238</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.07866703781337386</v>
+        <v>1.737401699303086</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.008936927470805238</v>
+        <v>1.521354424944063</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.680205274840822</v>
+        <v>4.040927629937496</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.521354424944063</v>
+        <v>5.08746694112967e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.040927629937496</v>
+        <v>41337795.02786871</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>5.08746694112967e-15</v>
+        <v>2.770648371939379e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>41337795.02786871</v>
+        <v>8.693531160947741</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.770648371939379e-06</v>
+        <v>0.0001930124625713395</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>8.693531160947741</v>
+        <v>9.039302792983749</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001930124625713395</v>
+        <v>1.459607038097883</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.039302792983749</v>
+        <v>0.01577085433594511</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.459607038097883</v>
+        <v>2.713962511275524</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01577085433594511</v>
+        <v>0.9563209969596254</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.713962511275524</v>
+        <v>1.758955631818439</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9563209969596254</v>
+        <v>20</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.758955631818439</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1501529828344742</v>
       </c>
     </row>
@@ -10115,72 +9905,66 @@
         <v>1.216321218348071e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.5117242706011599</v>
+        <v>3.899586363853911e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.092341981221995</v>
+        <v>3.587129208972801e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>3.899586363853911e-07</v>
+        <v>-0.05343064847609642</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>3.587129208972801e-06</v>
+        <v>0.07999085533360574</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05343064847609642</v>
+        <v>0.009253640417375681</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.07999085533360574</v>
+        <v>1.746350773168676</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.009253640417375681</v>
+        <v>1.492565680227233</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.690318783023959</v>
+        <v>4.344557492605682</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.492565680227233</v>
+        <v>4.401215643587915e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.344557492605682</v>
+        <v>48130706.4668672</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>4.401215643587915e-15</v>
+        <v>2.385940249196459e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>48130706.4668672</v>
+        <v>10.19570169927158</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.385940249196459e-06</v>
+        <v>0.0001820933505672371</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>10.19570169927158</v>
+        <v>9.964864133647252</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001820933505672371</v>
+        <v>1.223256110851239</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.964864133647252</v>
+        <v>0.0180815997036796</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.223256110851239</v>
+        <v>2.632736610335739</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.0180815997036796</v>
+        <v>0.9559667022452681</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.632736610335739</v>
+        <v>1.731192859041718</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9559667022452681</v>
+        <v>20</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.731192859041718</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1653179712555508</v>
       </c>
     </row>
@@ -10195,72 +9979,66 @@
         <v>1.193258071336861e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.5412982298974254</v>
+        <v>3.924792358416587e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.041786951649682</v>
+        <v>3.580607623339616e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3.924792358416587e-07</v>
+        <v>-0.05481540517965</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.580607623339616e-06</v>
+        <v>0.08140587294817722</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05481540517965</v>
+        <v>0.009631935341582864</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.08140587294817722</v>
+        <v>1.775636017386527</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.009631935341582864</v>
+        <v>1.572860944058659</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.729532680624922</v>
+        <v>3.624059590071656</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.572860944058659</v>
+        <v>3.502811473033338e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.624059590071656</v>
+        <v>60068552.37218846</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.502811473033338e-15</v>
+        <v>1.925757048175429e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>60068552.37218846</v>
+        <v>12.63895288842604</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.925757048175429e-06</v>
+        <v>0.0001917337720065287</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>12.63895288842604</v>
+        <v>11.74070109447672</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001917337720065287</v>
+        <v>1.062818033275675</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>11.74070109447672</v>
+        <v>0.02642936199236186</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.062818033275675</v>
+        <v>2.311287025172144</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02642936199236186</v>
+        <v>0.9559310185914319</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.311287025172144</v>
+        <v>1.719944227509232</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9559310185914319</v>
+        <v>24</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.719944227509232</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1815620250364909</v>
       </c>
     </row>
@@ -10275,72 +10053,66 @@
         <v>1.167898337548472e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.5653356004443089</v>
+        <v>3.907138827454729e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.9990607643240654</v>
+        <v>3.574072178523321e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>3.907138827454729e-07</v>
+        <v>-0.05575495887810181</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.574072178523321e-06</v>
+        <v>0.08323198665557423</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05575495887810181</v>
+        <v>0.01003634921105096</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.08323198665557423</v>
+        <v>1.851252061552043</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01003634921105096</v>
+        <v>1.70363281716524</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.817066321558531</v>
+        <v>3.589473587924768</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.70363281716524</v>
+        <v>3.433921418798252e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.589473587924768</v>
+        <v>60320842.83098747</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.433921418798252e-15</v>
+        <v>1.961770123556538e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>60320842.83098747</v>
+        <v>12.49468048429166</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.961770123556538e-06</v>
+        <v>0.0001891923838183968</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>12.49468048429166</v>
+        <v>11.4572813471826</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001891923838183968</v>
+        <v>1.076909160048204</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>11.4572813471826</v>
+        <v>0.02483515100752364</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.076909160048204</v>
+        <v>2.496702447798905</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02483515100752364</v>
+        <v>0.9590566231860289</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.496702447798905</v>
+        <v>1.593760553925142</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9590566231860289</v>
+        <v>23</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.593760553925142</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2017002195014847</v>
       </c>
     </row>
@@ -10717,7 +10489,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.256242823718978</v>
+        <v>1.235459039040967</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.81100521042691</v>
@@ -10806,7 +10578,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.251473467393345</v>
+        <v>1.229536615117483</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.813395519257373</v>
@@ -10895,7 +10667,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.275730260088378</v>
+        <v>1.250096246807668</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.787762913656127</v>
@@ -10984,7 +10756,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.302001233943825</v>
+        <v>1.282658555448884</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.022638250088078</v>
@@ -11073,7 +10845,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.305745297479927</v>
+        <v>1.286793763133625</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.016971732704924</v>
@@ -11162,7 +10934,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.315478318306893</v>
+        <v>1.295124800077402</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.129094744992981</v>
@@ -11251,7 +11023,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.310148826834596</v>
+        <v>1.288335598416285</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.128302451071001</v>
@@ -11340,7 +11112,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.300472362186648</v>
+        <v>1.278451480299404</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.138999616166409</v>
@@ -11429,7 +11201,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.297894845086594</v>
+        <v>1.275995833972954</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.145156492207925</v>
@@ -11518,7 +11290,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.302278643115085</v>
+        <v>1.284869458296644</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.136809135953556</v>
@@ -11607,7 +11379,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.299438709271023</v>
+        <v>1.285276113722189</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.169522595511149</v>
@@ -11696,7 +11468,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.30750501882365</v>
+        <v>1.290736348094254</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.116311378194227</v>
@@ -11785,7 +11557,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.311095283791331</v>
+        <v>1.285986988099918</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.12933901612579</v>
@@ -11874,7 +11646,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.315750362372401</v>
+        <v>1.288837722568372</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.138465589092048</v>
@@ -11963,7 +11735,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.313294215632336</v>
+        <v>1.286551109220584</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.165999133016085</v>
@@ -12052,7 +11824,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.30700924205384</v>
+        <v>1.274967202070872</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.218919483148373</v>
@@ -12141,7 +11913,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.301779149139199</v>
+        <v>1.270105585125533</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.229502232170815</v>
@@ -12230,7 +12002,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.317233906643969</v>
+        <v>1.283700102807424</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.738834908554714</v>
@@ -12319,7 +12091,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.311422738960626</v>
+        <v>1.271974948210387</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.436745369733032</v>
@@ -12408,7 +12180,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.311203501013937</v>
+        <v>1.275803288611388</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.392107406967424</v>
@@ -12497,7 +12269,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.331888667819754</v>
+        <v>1.293768148676973</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.524475749561548</v>
@@ -12586,7 +12358,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.335496338532552</v>
+        <v>1.301601041640832</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.554846094914771</v>
@@ -12675,7 +12447,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.33065436980375</v>
+        <v>1.300933334848281</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.506483770886237</v>
@@ -12764,7 +12536,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.34021602071843</v>
+        <v>1.309523735706769</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.494456325566602</v>
@@ -12853,7 +12625,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.340532042582966</v>
+        <v>1.305953699159117</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.542295759889389</v>
@@ -12942,7 +12714,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.345263139742507</v>
+        <v>1.303316443934613</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.458751194341364</v>
@@ -13031,7 +12803,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.334127250360934</v>
+        <v>1.301621104317369</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.299284113461744</v>
@@ -13120,7 +12892,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.330032507713702</v>
+        <v>1.299852091174411</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.52660174128965</v>
@@ -13209,7 +12981,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.31814067074866</v>
+        <v>1.287180454199494</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.405359731930562</v>
@@ -13298,7 +13070,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.305000848825673</v>
+        <v>1.274690441189463</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.550350349592268</v>
@@ -13387,7 +13159,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.322402496702482</v>
+        <v>1.288253486092773</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.243361754590489</v>
@@ -13476,7 +13248,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.323291817433437</v>
+        <v>1.29251785392388</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.398700649405987</v>
@@ -13565,7 +13337,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.3115933199261</v>
+        <v>1.277132627969864</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.383711114916228</v>
@@ -13654,7 +13426,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.341355899084634</v>
+        <v>1.311481872978995</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.476755886173905</v>
@@ -13743,7 +13515,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.345359957956828</v>
+        <v>1.312195384396855</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.626776880933665</v>
@@ -13832,7 +13604,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.339801080918982</v>
+        <v>1.306215204749424</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.293973746056317</v>
@@ -13921,7 +13693,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.347061991663611</v>
+        <v>1.311990436784993</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.635001879812226</v>
@@ -14010,7 +13782,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.3375269431718</v>
+        <v>1.302084840715214</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.645894058172018</v>
@@ -14099,7 +13871,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.327157313020247</v>
+        <v>1.288057131606502</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.562675169948609</v>
@@ -14188,7 +13960,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.323785926910923</v>
+        <v>1.286976541617271</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.398145915907881</v>
@@ -14277,7 +14049,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.319125380899584</v>
+        <v>1.281586309681452</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.253698718428164</v>
@@ -14366,7 +14138,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.331781552442632</v>
+        <v>1.292330242104571</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.527939263625331</v>
@@ -14455,7 +14227,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.347434233195912</v>
+        <v>1.308817940899379</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.228494311419341</v>
@@ -14544,7 +14316,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.355306541592768</v>
+        <v>1.313829542371592</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.489006515973896</v>
@@ -14633,7 +14405,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.350477917082416</v>
+        <v>1.314449467007206</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.44496270461329</v>
@@ -14722,7 +14494,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.345128091436889</v>
+        <v>1.30867764137222</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.44501725489578</v>
@@ -14811,7 +14583,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.360218447679923</v>
+        <v>1.317865148032083</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.626945921313144</v>
@@ -14900,7 +14672,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.377305289669469</v>
+        <v>1.337262745723045</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.577581233081264</v>
@@ -14989,7 +14761,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.36999342767243</v>
+        <v>1.328662237233173</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.429733447131968</v>
@@ -15078,7 +14850,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.381622819034807</v>
+        <v>1.340353182720116</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.556373215853622</v>
@@ -15167,7 +14939,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.373111328827307</v>
+        <v>1.332840206484273</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.409945717925121</v>
@@ -15256,7 +15028,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.380193775173613</v>
+        <v>1.338624969321529</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.206580952020822</v>
@@ -15345,7 +15117,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.348297188539153</v>
+        <v>1.309494539971003</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.646680968148079</v>
@@ -15434,7 +15206,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.369185402215598</v>
+        <v>1.333922537082775</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.38890587186344</v>
@@ -15523,7 +15295,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.36345319612565</v>
+        <v>1.329059719625575</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.637878254322264</v>
@@ -15612,7 +15384,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.359955088298679</v>
+        <v>1.329813137298494</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.518460949118168</v>
@@ -15701,7 +15473,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.353461042139235</v>
+        <v>1.324789304073036</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.652315359948167</v>
@@ -15790,7 +15562,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.359695864348001</v>
+        <v>1.32932367062922</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.480863984088459</v>
@@ -15879,7 +15651,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.353875927478455</v>
+        <v>1.32273768537895</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.427108799242395</v>
@@ -15968,7 +15740,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.341824990648989</v>
+        <v>1.314060994395617</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.636703386295774</v>
@@ -16057,7 +15829,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.347074539168413</v>
+        <v>1.316773164086159</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.525097390668869</v>
@@ -16146,7 +15918,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.342313739022508</v>
+        <v>1.313188893025207</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.359671619520776</v>
@@ -16235,7 +16007,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.334004009371436</v>
+        <v>1.303914513951023</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.521178737756262</v>
@@ -16324,7 +16096,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.321965709794654</v>
+        <v>1.291426727272543</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.69756090295526</v>
@@ -16413,7 +16185,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.311538815739605</v>
+        <v>1.278871613563303</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.384194645304575</v>
@@ -16502,7 +16274,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.309955307328669</v>
+        <v>1.279867518910027</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.529514415774431</v>
@@ -16591,7 +16363,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.31101840365587</v>
+        <v>1.276919078821044</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.459323637425615</v>
@@ -16680,7 +16452,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.336428307279868</v>
+        <v>1.300178464286152</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.476432603117022</v>
@@ -16769,7 +16541,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.326939739541818</v>
+        <v>1.288351462033928</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.555099082448714</v>
@@ -16858,7 +16630,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.335407656359556</v>
+        <v>1.290885277785957</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.390103231988646</v>
@@ -16947,7 +16719,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.349979568383641</v>
+        <v>1.302494238719492</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.489831916743091</v>
@@ -17036,7 +16808,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.353799292956717</v>
+        <v>1.304291199468123</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.712190067041675</v>
@@ -17125,7 +16897,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.367709817908808</v>
+        <v>1.312133234047118</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.592150994332718</v>
@@ -17214,7 +16986,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.37559484244794</v>
+        <v>1.322842256672059</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.501033924150895</v>
@@ -17303,7 +17075,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.348839786652406</v>
+        <v>1.299511008918046</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.498236426960007</v>
@@ -17392,7 +17164,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.343269773564124</v>
+        <v>1.292408603524447</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.497830265093498</v>
@@ -17481,7 +17253,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.339834434513802</v>
+        <v>1.296234498313844</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.773546364131724</v>
@@ -17570,7 +17342,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.356134176809543</v>
+        <v>1.311261330988212</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.601191958681836</v>
@@ -17659,7 +17431,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.354999336688822</v>
+        <v>1.315827928825904</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.399576618534571</v>
@@ -17748,7 +17520,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.380450554074728</v>
+        <v>1.339188513285468</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.508191230355173</v>
@@ -17837,7 +17609,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.398402763851804</v>
+        <v>1.352705389877166</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.590230941316182</v>
@@ -18123,7 +17895,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.434455824440436</v>
+        <v>1.420259094801496</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.156135903966776</v>
@@ -18212,7 +17984,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.441561572428686</v>
+        <v>1.428519922495686</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.220260705071854</v>
@@ -18301,7 +18073,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.447817510373431</v>
+        <v>1.425593567957637</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.149928701696094</v>
@@ -18390,7 +18162,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.482671075570343</v>
+        <v>1.451110403662212</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.540803147709942</v>
@@ -18479,7 +18251,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.502422438859059</v>
+        <v>1.469026460239625</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.493469291023086</v>
@@ -18568,7 +18340,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.519431349387244</v>
+        <v>1.483457983777079</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.318040620049083</v>
@@ -18657,7 +18429,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.533098921539984</v>
+        <v>1.497504070746685</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.400438354623207</v>
@@ -18746,7 +18518,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.523429629564332</v>
+        <v>1.49081874690681</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.370275526873675</v>
@@ -18835,7 +18607,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.524338097138567</v>
+        <v>1.494565416778151</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.344818215594601</v>
@@ -18924,7 +18696,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.54999840534666</v>
+        <v>1.519292854669986</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.135908764335199</v>
@@ -19013,7 +18785,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567140989082112</v>
+        <v>1.531042558118309</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.206861464675403</v>
@@ -19102,7 +18874,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.574337800305933</v>
+        <v>1.539559864529922</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.42896487920967</v>
@@ -19191,7 +18963,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.588170770413698</v>
+        <v>1.549057758594299</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.562219212670579</v>
@@ -19280,7 +19052,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.605904399744381</v>
+        <v>1.569404639101291</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.467251333101473</v>
@@ -19369,7 +19141,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.607457170548061</v>
+        <v>1.572145168985657</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.445851519191816</v>
@@ -19458,7 +19230,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.599295091468021</v>
+        <v>1.569833702701181</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.48325981581279</v>
@@ -19547,7 +19319,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.605524335883967</v>
+        <v>1.573520206078062</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.298129369542303</v>
@@ -19636,7 +19408,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.642823769772235</v>
+        <v>1.601624296512766</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.035264793369108</v>
@@ -19725,7 +19497,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.645607736730193</v>
+        <v>1.60898570127623</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.107853521990627</v>
@@ -19814,7 +19586,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.646549944966711</v>
+        <v>1.613005103740096</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.33708314918995</v>
@@ -19903,7 +19675,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.651537497559275</v>
+        <v>1.618725209873233</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.09854115194605</v>
@@ -19992,7 +19764,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.657410959111016</v>
+        <v>1.622834465949702</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.317872536009356</v>
@@ -20081,7 +19853,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.658433299979272</v>
+        <v>1.626627987482566</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.383330768738833</v>
@@ -20170,7 +19942,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.651634707103796</v>
+        <v>1.621941088550879</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.294138484927939</v>
@@ -20259,7 +20031,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.642858238733758</v>
+        <v>1.611543491563612</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.90395132651716</v>
@@ -20348,7 +20120,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.637922476658036</v>
+        <v>1.605719577996878</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.288939387384986</v>
@@ -20437,7 +20209,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.641413470279712</v>
+        <v>1.6099034833371</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.24028219644346</v>
@@ -20526,7 +20298,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.638042297292414</v>
+        <v>1.606846059613089</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.209348423017339</v>
@@ -20615,7 +20387,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.617121051791406</v>
+        <v>1.58338983496275</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.071692517845548</v>
@@ -20704,7 +20476,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.603643079041564</v>
+        <v>1.569560688523691</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.281110947967251</v>
@@ -20793,7 +20565,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.606699174372203</v>
+        <v>1.558248921462817</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.202562072263556</v>
@@ -20882,7 +20654,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.608110697739977</v>
+        <v>1.560211688199345</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.955339333471949</v>
@@ -20971,7 +20743,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.608615769923636</v>
+        <v>1.562033828069266</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.863585251138336</v>
@@ -21060,7 +20832,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614612781086872</v>
+        <v>1.565973394095964</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.093885494041233</v>
@@ -21149,7 +20921,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.615726211649205</v>
+        <v>1.565268807657306</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.093111190375538</v>
@@ -21238,7 +21010,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.597689503053594</v>
+        <v>1.549726664084881</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.018256016624856</v>
@@ -21327,7 +21099,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.594589087960622</v>
+        <v>1.541540053938536</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.116698858220832</v>
@@ -21416,7 +21188,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.585012223184317</v>
+        <v>1.530420165369796</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.113364645446539</v>
@@ -21505,7 +21277,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584354408806812</v>
+        <v>1.521129268396255</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.089570328270858</v>
@@ -21594,7 +21366,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.587076079008253</v>
+        <v>1.524869438269049</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.977796699153305</v>
@@ -21683,7 +21455,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.577532724219271</v>
+        <v>1.522188207524438</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.940846988761692</v>
@@ -21772,7 +21544,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.576431727705323</v>
+        <v>1.522064700295862</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.166176900796724</v>
@@ -21861,7 +21633,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570707412381815</v>
+        <v>1.519482935172315</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.010902800038051</v>
@@ -21950,7 +21722,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.574998223322268</v>
+        <v>1.522453465320814</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.660348536053891</v>
@@ -22039,7 +21811,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.573175907550033</v>
+        <v>1.523507220797542</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.111615794432549</v>
@@ -22128,7 +21900,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.573870110081083</v>
+        <v>1.531353572895487</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.296783939533775</v>
@@ -22217,7 +21989,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.559385658222866</v>
+        <v>1.514578992094054</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.347786519537527</v>
@@ -22306,7 +22078,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.568502679137526</v>
+        <v>1.521329955734816</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.366868537962517</v>
@@ -22395,7 +22167,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.57494748733651</v>
+        <v>1.527588303494806</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.367438813402287</v>
@@ -22484,7 +22256,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.572011435314272</v>
+        <v>1.523756308160904</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.261446711986791</v>
@@ -22573,7 +22345,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.586205966142512</v>
+        <v>1.53962191135365</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.494866613827383</v>
@@ -22662,7 +22434,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.597202841046121</v>
+        <v>1.555385573817145</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.970204180072453</v>
@@ -22751,7 +22523,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.60827252458087</v>
+        <v>1.569087074682158</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.178997642605229</v>
@@ -22840,7 +22612,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.605692504026037</v>
+        <v>1.571193583494628</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.392651022434139</v>
@@ -22929,7 +22701,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.608638520693336</v>
+        <v>1.570970215446397</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.061085075833758</v>
@@ -23018,7 +22790,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.601853391254235</v>
+        <v>1.570048332558186</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.214496002778811</v>
@@ -23107,7 +22879,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.598533853107954</v>
+        <v>1.566280112331478</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.951755347189972</v>
@@ -23196,7 +22968,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.587812229758255</v>
+        <v>1.555518279049768</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.019034982893265</v>
@@ -23285,7 +23057,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.5976476408745</v>
+        <v>1.56248188581534</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.139974546599295</v>
@@ -23374,7 +23146,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.611759932937959</v>
+        <v>1.574609765689803</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.971148705240169</v>
@@ -23463,7 +23235,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.619838719995902</v>
+        <v>1.571456516101286</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.616136311590852</v>
@@ -23552,7 +23324,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.628588143251711</v>
+        <v>1.581997694484772</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.946700802552084</v>
@@ -23641,7 +23413,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.621362769869281</v>
+        <v>1.581429118101744</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.023491987025045</v>
@@ -23730,7 +23502,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.592022260968169</v>
+        <v>1.550146036937515</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.181301215770973</v>
@@ -23819,7 +23591,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.592007519305444</v>
+        <v>1.544356002265138</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.115105711213845</v>
@@ -23908,7 +23680,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.585045774303156</v>
+        <v>1.535828130320629</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.825323707641618</v>
@@ -23997,7 +23769,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.573798418121839</v>
+        <v>1.521788711833332</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.876220623058395</v>
@@ -24086,7 +23858,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.57376066908502</v>
+        <v>1.516760175380216</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.768335998002909</v>
@@ -24175,7 +23947,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.581050704781196</v>
+        <v>1.520535327070431</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.814735574866143</v>
@@ -24264,7 +24036,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.579803550557675</v>
+        <v>1.517885629907425</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.669480104322967</v>
@@ -24353,7 +24125,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.587957022297158</v>
+        <v>1.520613565987228</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.969291333563458</v>
@@ -24442,7 +24214,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.581305906490749</v>
+        <v>1.51446521567396</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.070408854227519</v>
@@ -24531,7 +24303,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.586805822814414</v>
+        <v>1.516676171271669</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.130564361692497</v>
@@ -24620,7 +24392,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.570287544027191</v>
+        <v>1.508147740927081</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.005336470768149</v>
@@ -24709,7 +24481,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.570140060806843</v>
+        <v>1.507759128500999</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.126779675431575</v>
@@ -24798,7 +24570,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.577115231562537</v>
+        <v>1.524502429630723</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.941769637329094</v>
@@ -24887,7 +24659,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.583469062618832</v>
+        <v>1.53236400274453</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.862231346706316</v>
@@ -24976,7 +24748,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.591577635107755</v>
+        <v>1.54090526274715</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.652146560858236</v>
@@ -25065,7 +24837,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.595159856127406</v>
+        <v>1.545028474269274</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.650005642778904</v>
@@ -25154,7 +24926,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.604264464923489</v>
+        <v>1.555855680383193</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.949910952693856</v>
@@ -25243,7 +25015,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.614313495334198</v>
+        <v>1.569309441784337</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.962486474292274</v>
@@ -25529,7 +25301,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.577605736218247</v>
+        <v>1.501590808151314</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.802244883107889</v>
@@ -25618,7 +25390,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.586510402031433</v>
+        <v>1.507566503736848</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.511479059987426</v>
@@ -25707,7 +25479,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.604021961623923</v>
+        <v>1.516133133152755</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.395459047799079</v>
@@ -25796,7 +25568,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.620960969289588</v>
+        <v>1.52026403179702</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.526436793996097</v>
@@ -25885,7 +25657,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61359399151761</v>
+        <v>1.516627993333415</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.600832203249875</v>
@@ -25974,7 +25746,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.613546328425383</v>
+        <v>1.519187715639541</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.402617321073644</v>
@@ -26063,7 +25835,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.603871851586724</v>
+        <v>1.509082455507966</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.433852900751469</v>
@@ -26152,7 +25924,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.58981174048145</v>
+        <v>1.500918597370325</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.479223116267492</v>
@@ -26241,7 +26013,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.580995672848861</v>
+        <v>1.49772117498634</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.513251760745426</v>
@@ -26330,7 +26102,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.595071868761083</v>
+        <v>1.518973580353822</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.667047654783783</v>
@@ -26419,7 +26191,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.599840177941828</v>
+        <v>1.523854825367069</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.270481150248083</v>
@@ -26508,7 +26280,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.607358867586282</v>
+        <v>1.518645704293041</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.145238871966971</v>
@@ -26597,7 +26369,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.604952457828558</v>
+        <v>1.507313326919023</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.219405171273643</v>
@@ -26686,7 +26458,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.614434612758185</v>
+        <v>1.518524106078078</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.180082046680672</v>
@@ -26775,7 +26547,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.617001836798478</v>
+        <v>1.515235109108747</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.530167040828343</v>
@@ -26864,7 +26636,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.61852503124355</v>
+        <v>1.513122171616957</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.43680958924875</v>
@@ -26953,7 +26725,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.620596140289737</v>
+        <v>1.517743423872523</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.874461697977911</v>
@@ -27042,7 +26814,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.62605484605743</v>
+        <v>1.5255877470611</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.487396711455181</v>
@@ -27131,7 +26903,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.62072094320857</v>
+        <v>1.519702089837562</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.507425656154489</v>
@@ -27220,7 +26992,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.622986027775182</v>
+        <v>1.516503472149243</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.161489596003356</v>
@@ -27309,7 +27081,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.632870278939793</v>
+        <v>1.524031670659932</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.205990125141096</v>
@@ -27398,7 +27170,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.624956935729887</v>
+        <v>1.522536923825186</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.357183205499074</v>
@@ -27487,7 +27259,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.633244450823072</v>
+        <v>1.531418618390187</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.492870695434666</v>
@@ -27576,7 +27348,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.643943777429578</v>
+        <v>1.538601175923627</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.266005453931294</v>
@@ -27665,7 +27437,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.638448286993638</v>
+        <v>1.533225066261024</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.583666580195057</v>
@@ -27754,7 +27526,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.638151153576927</v>
+        <v>1.526485979919925</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.111588233058146</v>
@@ -27843,7 +27615,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.624858499264582</v>
+        <v>1.526915007818637</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.907786134816289</v>
@@ -27932,7 +27704,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.625465990628577</v>
+        <v>1.536521839175472</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.956386291201311</v>
@@ -28021,7 +27793,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618688999776167</v>
+        <v>1.530010188112727</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.395126023384031</v>
@@ -28110,7 +27882,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.607225522640011</v>
+        <v>1.523582192335335</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.748639993720795</v>
@@ -28199,7 +27971,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.597278516228384</v>
+        <v>1.512040343261924</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.234696231278867</v>
@@ -28288,7 +28060,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.592415054400987</v>
+        <v>1.51018201967766</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.672072049160469</v>
@@ -28377,7 +28149,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.584736557944881</v>
+        <v>1.508817861883047</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.298946620109332</v>
@@ -28466,7 +28238,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.592083004136232</v>
+        <v>1.519940226218726</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.554368949508504</v>
@@ -28555,7 +28327,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.594211512474532</v>
+        <v>1.521587127098571</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.420572206527202</v>
@@ -28644,7 +28416,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.601157272275803</v>
+        <v>1.521787577477129</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.243477274431218</v>
@@ -28733,7 +28505,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.600739362107142</v>
+        <v>1.519411186193666</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.528221354727951</v>
@@ -28822,7 +28594,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.583413491247398</v>
+        <v>1.505226255770671</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.743598481118619</v>
@@ -28911,7 +28683,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589350975114172</v>
+        <v>1.51097374429411</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.099566948250148</v>
@@ -29000,7 +28772,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.587226843879188</v>
+        <v>1.504931809990452</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.580860168098778</v>
@@ -29089,7 +28861,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590593130219351</v>
+        <v>1.508416504202984</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.360586579677666</v>
@@ -29178,7 +28950,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.59759955246199</v>
+        <v>1.514189199291833</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.286868020904549</v>
@@ -29267,7 +29039,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.60073693196596</v>
+        <v>1.515599950262273</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.584827661369585</v>
@@ -29356,7 +29128,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.605827315681148</v>
+        <v>1.521009702780872</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.248969311243336</v>
@@ -29445,7 +29217,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.609242229826965</v>
+        <v>1.525552443333046</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.96191756024139</v>
@@ -29534,7 +29306,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.603812682183527</v>
+        <v>1.52011058755214</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.424778964651257</v>
@@ -29623,7 +29395,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.608381496282831</v>
+        <v>1.521985035274473</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.233381893573907</v>
@@ -29712,7 +29484,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.618748559274486</v>
+        <v>1.524304849458657</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.409696104180639</v>
@@ -29801,7 +29573,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.614656362016586</v>
+        <v>1.519272747154353</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.652047772184635</v>
@@ -29890,7 +29662,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617016408940864</v>
+        <v>1.526277411951072</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.192321324207726</v>
@@ -29979,7 +29751,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.609360426437387</v>
+        <v>1.521450059837949</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.34186028073183</v>
@@ -30068,7 +29840,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.618360440356742</v>
+        <v>1.524830111965469</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.11293384341585</v>
@@ -30157,7 +29929,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.623883829163845</v>
+        <v>1.52861220697445</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.313543887061282</v>
@@ -30246,7 +30018,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.619879323365329</v>
+        <v>1.526450722528138</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.42173567793511</v>
@@ -30335,7 +30107,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.624162069429334</v>
+        <v>1.53417290157284</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.596863627831519</v>
@@ -30424,7 +30196,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.625029646678453</v>
+        <v>1.541062097711332</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.535475712140963</v>
@@ -30513,7 +30285,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.622342315473034</v>
+        <v>1.539838049961043</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.050145504604792</v>
@@ -30602,7 +30374,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.624231918429071</v>
+        <v>1.535721650193268</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.469927678755162</v>
@@ -30691,7 +30463,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.615157439831491</v>
+        <v>1.527221611488278</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.366016111901392</v>
@@ -30780,7 +30552,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.613938750021876</v>
+        <v>1.522770794808397</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.220397397317244</v>
@@ -30869,7 +30641,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.610576974189986</v>
+        <v>1.513849455371055</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.181020828869343</v>
@@ -30958,7 +30730,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.61309510928386</v>
+        <v>1.520591118588216</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.167928322835085</v>
@@ -31047,7 +30819,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.613422642117986</v>
+        <v>1.516399662914316</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.278622315925988</v>
@@ -31136,7 +30908,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.613599183605027</v>
+        <v>1.515926703075716</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.330652084600026</v>
@@ -31225,7 +30997,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.608244441147631</v>
+        <v>1.508668500639379</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.36354531047809</v>
@@ -31314,7 +31086,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.604935667359726</v>
+        <v>1.503000434009177</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.159942671050483</v>
@@ -31403,7 +31175,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.59605590908083</v>
+        <v>1.497228558374565</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.093543410173634</v>
@@ -31492,7 +31264,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.600246699799862</v>
+        <v>1.498749367701413</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.12594723599482</v>
@@ -31581,7 +31353,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.599614207574307</v>
+        <v>1.494573912257227</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.328034972098019</v>
@@ -31670,7 +31442,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.588443114325207</v>
+        <v>1.478612459888582</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.287872676904472</v>
@@ -31759,7 +31531,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.581910767341393</v>
+        <v>1.468424671064254</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.539171387396921</v>
@@ -31848,7 +31620,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.58701359845581</v>
+        <v>1.472994301589586</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.307086602442681</v>
@@ -31937,7 +31709,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.589325385972828</v>
+        <v>1.473662731685563</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.166030624212744</v>
@@ -32026,7 +31798,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.591866002842163</v>
+        <v>1.473295672474506</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.504667548420852</v>
@@ -32115,7 +31887,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.587567299096602</v>
+        <v>1.4752224187513</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.456083470711816</v>
@@ -32204,7 +31976,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.588600688745944</v>
+        <v>1.482484471877364</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.473088551163849</v>
@@ -32293,7 +32065,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.585610473734149</v>
+        <v>1.474468916527584</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.587009115270547</v>
@@ -32382,7 +32154,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.587757904152068</v>
+        <v>1.482845872361565</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.683359090846498</v>
@@ -32471,7 +32243,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.581530339417795</v>
+        <v>1.481232445204075</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.558329616034156</v>
@@ -32560,7 +32332,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.5907471388439</v>
+        <v>1.48944561588991</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.576707057381629</v>
@@ -32649,7 +32421,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.595087698656282</v>
+        <v>1.4896267815747</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.421380774952929</v>
@@ -32935,7 +32707,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.530425739876146</v>
+        <v>1.486762647347873</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.4712541816689</v>
@@ -33024,7 +32796,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523427262291903</v>
+        <v>1.475568796725485</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.575784902334419</v>
@@ -33113,7 +32885,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.553150369659177</v>
+        <v>1.497092038337561</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.441368068479115</v>
@@ -33202,7 +32974,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.579149439284963</v>
+        <v>1.512938795512881</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.781661873528653</v>
@@ -33291,7 +33063,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.558901444470369</v>
+        <v>1.498610550035542</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.872626605404581</v>
@@ -33380,7 +33152,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.557627026393401</v>
+        <v>1.492732737091438</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.800430879614282</v>
@@ -33469,7 +33241,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.542423284894499</v>
+        <v>1.485180096970014</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.947365323480201</v>
@@ -33558,7 +33330,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.523992237761105</v>
+        <v>1.467362607907512</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.642432724500523</v>
@@ -33647,7 +33419,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.51645160334305</v>
+        <v>1.460345248923433</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.840248873812219</v>
@@ -33736,7 +33508,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.506989241341071</v>
+        <v>1.454187142834782</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.017469483746744</v>
@@ -33825,7 +33597,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.508289343335646</v>
+        <v>1.456263480851063</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.028370133927842</v>
@@ -33914,7 +33686,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513665026439663</v>
+        <v>1.453883995390564</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.598689154515412</v>
@@ -34003,7 +33775,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.508857517989471</v>
+        <v>1.439667944993251</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.561230436766524</v>
@@ -34092,7 +33864,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.499571965213672</v>
+        <v>1.431211382131871</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.808042966387628</v>
@@ -34181,7 +33953,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.498160647380383</v>
+        <v>1.429074050686226</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.667784031538297</v>
@@ -34270,7 +34042,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.492270170512358</v>
+        <v>1.424848420144439</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.909213106466522</v>
@@ -34359,7 +34131,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.489406826868636</v>
+        <v>1.427571328504604</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.887843199091917</v>
@@ -34448,7 +34220,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.487673136258669</v>
+        <v>1.421959272183079</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.831772943585536</v>
@@ -34537,7 +34309,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.478596484787396</v>
+        <v>1.407979263128368</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.930288155036558</v>
@@ -34626,7 +34398,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.490531611749189</v>
+        <v>1.420062449913955</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.747713588921057</v>
@@ -34715,7 +34487,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.504615799847407</v>
+        <v>1.432034479386642</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.73960175280192</v>
@@ -34804,7 +34576,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.500291467472235</v>
+        <v>1.427043681830167</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.677775056518901</v>
@@ -34893,7 +34665,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.507432078421157</v>
+        <v>1.437493042996397</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.720179294914526</v>
@@ -34982,7 +34754,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.516792595239306</v>
+        <v>1.447828173449663</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.831592539636967</v>
@@ -35071,7 +34843,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.528305438220511</v>
+        <v>1.457778666642695</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.049262617139316</v>
@@ -35160,7 +34932,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.531720271116791</v>
+        <v>1.453952056777696</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.650299452915933</v>
@@ -35249,7 +35021,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.531709881354491</v>
+        <v>1.460320293652593</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.64021319109335</v>
@@ -35338,7 +35110,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.54313829256832</v>
+        <v>1.472797130906756</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.090710908413931</v>
@@ -35427,7 +35199,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.53752275545165</v>
+        <v>1.466911889269441</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.000273344135666</v>
@@ -35516,7 +35288,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.526966822390964</v>
+        <v>1.457858767356821</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.830846848247009</v>
@@ -35605,7 +35377,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.532136340803024</v>
+        <v>1.457642741652312</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.981640522368534</v>
@@ -35694,7 +35466,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.526060745130996</v>
+        <v>1.448570111106195</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.498248599298963</v>
@@ -35783,7 +35555,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.525190221200701</v>
+        <v>1.453905695733472</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.926861492421092</v>
@@ -35872,7 +35644,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541350762003072</v>
+        <v>1.470162656491113</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.252577152109055</v>
@@ -35961,7 +35733,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.532955397997078</v>
+        <v>1.462180651531102</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.197591948963423</v>
@@ -36050,7 +35822,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.535746703017822</v>
+        <v>1.462826434732506</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.061570381142994</v>
@@ -36139,7 +35911,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.54170104487353</v>
+        <v>1.461756037224667</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.536909013422725</v>
@@ -36228,7 +36000,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.536979959433319</v>
+        <v>1.45196679793023</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.524954373786367</v>
@@ -36317,7 +36089,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.535601800260081</v>
+        <v>1.444136812748245</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.4353773718044</v>
@@ -36406,7 +36178,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.53862683808571</v>
+        <v>1.441607034222879</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.206997354776909</v>
@@ -36495,7 +36267,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.53499324876737</v>
+        <v>1.442889053369391</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.748706756994752</v>
@@ -36584,7 +36356,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.537474604935379</v>
+        <v>1.445043963293219</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.256370002865224</v>
@@ -36673,7 +36445,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.534220076006923</v>
+        <v>1.447177388975958</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.395983663912969</v>
@@ -36762,7 +36534,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.541746883171337</v>
+        <v>1.457530368189844</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.4510808889381</v>
@@ -36851,7 +36623,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.540510767074867</v>
+        <v>1.463109907556887</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.31269811437334</v>
@@ -36940,7 +36712,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.539482859638751</v>
+        <v>1.454470398797846</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.849423074703213</v>
@@ -37029,7 +36801,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.550797578998892</v>
+        <v>1.459445053050018</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.306917564305019</v>
@@ -37118,7 +36890,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.562564691258626</v>
+        <v>1.465417428659423</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.352901950980579</v>
@@ -37207,7 +36979,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.559863706217059</v>
+        <v>1.463704005186285</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.288583113680994</v>
@@ -37296,7 +37068,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.57831705065082</v>
+        <v>1.481949457326635</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.465212778227129</v>
@@ -37385,7 +37157,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.572982340267841</v>
+        <v>1.478885458586766</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.356941302699051</v>
@@ -37474,7 +37246,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.583485295252831</v>
+        <v>1.489343351266427</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.878446960198231</v>
@@ -37563,7 +37335,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.573557375390975</v>
+        <v>1.485580040968372</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.259536288765799</v>
@@ -37652,7 +37424,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.578161639414158</v>
+        <v>1.488288168369888</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.20849988741256</v>
@@ -37741,7 +37513,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.567174069324586</v>
+        <v>1.480711188712526</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.942959433529047</v>
@@ -37830,7 +37602,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.563752401919696</v>
+        <v>1.482962750153334</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.066019783117913</v>
@@ -37919,7 +37691,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.559169001945331</v>
+        <v>1.483689832138232</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.973990691770628</v>
@@ -38008,7 +37780,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.565626977042379</v>
+        <v>1.485983555257999</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.122865818263273</v>
@@ -38097,7 +37869,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.563222282538155</v>
+        <v>1.481177762062544</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.007843082381215</v>
@@ -38186,7 +37958,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.558363171960333</v>
+        <v>1.471720540500919</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.235803673112155</v>
@@ -38275,7 +38047,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.553542691753074</v>
+        <v>1.471155498909946</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.118447026747327</v>
@@ -38364,7 +38136,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.549501708256925</v>
+        <v>1.477562490425238</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.097500048605307</v>
@@ -38453,7 +38225,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.538603054804314</v>
+        <v>1.463337930433332</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.080453050186979</v>
@@ -38542,7 +38314,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.527150960312653</v>
+        <v>1.452555704242723</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.195017066073763</v>
@@ -38631,7 +38403,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.510051775478511</v>
+        <v>1.429203660752042</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.824774285700549</v>
@@ -38720,7 +38492,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.508922036930545</v>
+        <v>1.430031542303291</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.867202816725923</v>
@@ -38809,7 +38581,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.506793367115192</v>
+        <v>1.429650526597002</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.099337439125027</v>
@@ -38898,7 +38670,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.514571662625771</v>
+        <v>1.436974374935075</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.735909194862065</v>
@@ -38987,7 +38759,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.515363405066724</v>
+        <v>1.434964582514465</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.952771097730941</v>
@@ -39076,7 +38848,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.513732654392334</v>
+        <v>1.421460201321612</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.994250730232678</v>
@@ -39165,7 +38937,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.524137363065879</v>
+        <v>1.424951706211681</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.002489676193231</v>
@@ -39254,7 +39026,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.518185904643002</v>
+        <v>1.416791758974335</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.138651538257755</v>
@@ -39343,7 +39115,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.526795065118242</v>
+        <v>1.417601773834998</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.300745977799929</v>
@@ -39432,7 +39204,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.531795219303067</v>
+        <v>1.424968478731149</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.122108802789775</v>
@@ -39521,7 +39293,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.520034125990482</v>
+        <v>1.421614347534435</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.269651738348009</v>
@@ -39610,7 +39382,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.524730298830412</v>
+        <v>1.42756445596082</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.427114056098665</v>
@@ -39699,7 +39471,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.521571211924032</v>
+        <v>1.424054113291637</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.526919171290179</v>
@@ -39788,7 +39560,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.533838794999792</v>
+        <v>1.435920380063491</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.233348804873695</v>
@@ -39877,7 +39649,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.541779085907003</v>
+        <v>1.442553648809608</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.101076340690661</v>
@@ -39966,7 +39738,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.553123610711382</v>
+        <v>1.453592081663047</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.264783090070257</v>
@@ -40055,7 +39827,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.561877231004495</v>
+        <v>1.458996843211757</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.105069390580791</v>
@@ -40341,7 +40113,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.225471684704549</v>
+        <v>1.220069493536292</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.76266892255073</v>
@@ -40430,7 +40202,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.230183605979355</v>
+        <v>1.222202651847978</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.776371084484841</v>
@@ -40519,7 +40291,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.308768025996054</v>
+        <v>1.308600484573343</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.847398337613044</v>
@@ -40608,7 +40380,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.359482620851258</v>
+        <v>1.357199398433409</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.788506444527231</v>
@@ -40697,7 +40469,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.396727168203363</v>
+        <v>1.39676763336219</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.086374701314051</v>
@@ -40786,7 +40558,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.435568217031588</v>
+        <v>1.445354485225588</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.931590580448529</v>
@@ -40875,7 +40647,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.450813497516918</v>
+        <v>1.458171986855504</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.061654947875164</v>
@@ -40964,7 +40736,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.441622583229543</v>
+        <v>1.450595604072657</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.093928270527786</v>
@@ -41053,7 +40825,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.448571471287765</v>
+        <v>1.449760431384052</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.144201054478178</v>
@@ -41142,7 +40914,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.520558831065223</v>
+        <v>1.515305643223879</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.388928696108574</v>
@@ -41231,7 +41003,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.557046220803251</v>
+        <v>1.548738702026637</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.881696515425108</v>
@@ -41320,7 +41092,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.577458829855516</v>
+        <v>1.565853196674424</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.739739602916425</v>
@@ -41409,7 +41181,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.525316552664779</v>
+        <v>1.521295694838714</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.232799415049219</v>
@@ -41498,7 +41270,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.468418796286501</v>
+        <v>1.47374294584349</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.172531786180113</v>
@@ -41587,7 +41359,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.448250483615095</v>
+        <v>1.457489490491946</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.211170266065579</v>
@@ -41676,7 +41448,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.432624129129026</v>
+        <v>1.444152041674262</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.185479256019099</v>
@@ -41765,7 +41537,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.419442100866513</v>
+        <v>1.433348883295175</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.184516915805649</v>
@@ -41854,7 +41626,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.401351720139217</v>
+        <v>1.412031695868568</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.283513253581186</v>
@@ -41943,7 +41715,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.358986640279109</v>
+        <v>1.37642979315773</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.147003066059884</v>
@@ -42032,7 +41804,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.368493975942727</v>
+        <v>1.385268512881383</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.204369169618027</v>
@@ -42121,7 +41893,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.367357028778017</v>
+        <v>1.385267948045613</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.299664225359467</v>
@@ -42210,7 +41982,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.36741196925517</v>
+        <v>1.387061670208111</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.225499855056369</v>
@@ -42299,7 +42071,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.369132026215259</v>
+        <v>1.390005745083447</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.258803114145805</v>
@@ -42388,7 +42160,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.379778048515956</v>
+        <v>1.403762775475224</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.251484944383396</v>
@@ -42477,7 +42249,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.382915175121344</v>
+        <v>1.408986494977656</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.248721616956927</v>
@@ -42566,7 +42338,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.367900982583789</v>
+        <v>1.39143407000511</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.289463090596447</v>
@@ -42655,7 +42427,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.354227287825878</v>
+        <v>1.374820685391632</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.211952634826551</v>
@@ -42744,7 +42516,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.399572173349232</v>
+        <v>1.41639960492916</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.275043998920866</v>
@@ -42833,7 +42605,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.437052622151094</v>
+        <v>1.449303590493656</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.232392501549678</v>
@@ -42922,7 +42694,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.456475050509563</v>
+        <v>1.461584103328264</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.210851930999251</v>
@@ -43011,7 +42783,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.473118967275754</v>
+        <v>1.473711846287285</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.170743236286113</v>
@@ -43100,7 +42872,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.487935839014337</v>
+        <v>1.488179439767165</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.185060418054779</v>
@@ -43189,7 +42961,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.521963214728626</v>
+        <v>1.518355983254664</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.941256880219034</v>
@@ -43278,7 +43050,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606275067968287</v>
+        <v>1.585994134088443</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.582121332515346</v>
@@ -43367,7 +43139,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.610696767228338</v>
+        <v>1.588525261553361</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.487279887438516</v>
@@ -43456,7 +43228,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.617536662771391</v>
+        <v>1.588166588624944</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.571437774482755</v>
@@ -43545,7 +43317,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.625649987008309</v>
+        <v>1.594881340656084</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.6759302996041</v>
@@ -43634,7 +43406,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.62376202656843</v>
+        <v>1.592222388481802</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.723911734732891</v>
@@ -43723,7 +43495,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.620675972096166</v>
+        <v>1.576696582570551</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.50297234000573</v>
@@ -43812,7 +43584,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.613238222761236</v>
+        <v>1.567774987186903</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.718799773551847</v>
@@ -43901,7 +43673,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.643115655360682</v>
+        <v>1.587613634900165</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.623303222173324</v>
@@ -43990,7 +43762,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.667782354739623</v>
+        <v>1.605782732833042</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.176039161111934</v>
@@ -44079,7 +43851,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.666279250463853</v>
+        <v>1.611976072962933</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.733896465266699</v>
@@ -44168,7 +43940,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.670500325885248</v>
+        <v>1.618556161941932</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.106155430352349</v>
@@ -44257,7 +44029,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.6685763042504</v>
+        <v>1.619583653432078</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.481779915686673</v>
@@ -44346,7 +44118,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.671728574953303</v>
+        <v>1.617392379051911</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.608605309675965</v>
@@ -44435,7 +44207,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.678342411948618</v>
+        <v>1.617769345248405</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.496418121698345</v>
@@ -44524,7 +44296,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.694489631723303</v>
+        <v>1.619713967182265</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.629623546000448</v>
@@ -44613,7 +44385,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.661715869439864</v>
+        <v>1.59779626559197</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.074985337200761</v>
@@ -44702,7 +44474,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.664773566423946</v>
+        <v>1.597161532567223</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.924938331516566</v>
@@ -44791,7 +44563,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.658487760869721</v>
+        <v>1.591890811422927</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.925749091038916</v>
@@ -44880,7 +44652,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.6589933107302</v>
+        <v>1.592726192378385</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.04322030129899</v>
@@ -44969,7 +44741,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.654439789544485</v>
+        <v>1.591212359300841</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.836802608181767</v>
@@ -45058,7 +44830,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.649421404582865</v>
+        <v>1.594718845236027</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.088571434916676</v>
@@ -45147,7 +44919,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.657322141591914</v>
+        <v>1.604056380456419</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.037763565524798</v>
@@ -45236,7 +45008,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.652406061439261</v>
+        <v>1.602658754956252</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.916234998395343</v>
@@ -45325,7 +45097,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.653958566784117</v>
+        <v>1.608257886086054</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.030260767786226</v>
@@ -45414,7 +45186,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.657371744052254</v>
+        <v>1.607902604902772</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.09020069901805</v>
@@ -45503,7 +45275,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.655821661884988</v>
+        <v>1.603776627935988</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.817891483818963</v>
@@ -45592,7 +45364,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.659075552880346</v>
+        <v>1.600092860557284</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.044534537384387</v>
@@ -45681,7 +45453,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.653808189373242</v>
+        <v>1.589414359364347</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.888207465435307</v>
@@ -45770,7 +45542,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.655274414407073</v>
+        <v>1.587659184212822</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.983290907310627</v>
@@ -45859,7 +45631,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.647088623230795</v>
+        <v>1.585202335012562</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.891803236247424</v>
@@ -45948,7 +45720,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.651336216812406</v>
+        <v>1.583709381860969</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.480172168897442</v>
@@ -46037,7 +45809,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.654213588255223</v>
+        <v>1.586591995979323</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.518314535936166</v>
@@ -46126,7 +45898,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.651171894065794</v>
+        <v>1.583519898981597</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.691856524860262</v>
@@ -46215,7 +45987,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.653282467645954</v>
+        <v>1.587752664205465</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.516736146026137</v>
@@ -46304,7 +46076,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.661977823581537</v>
+        <v>1.591727250165838</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.772432179190398</v>
@@ -46393,7 +46165,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.661793228867325</v>
+        <v>1.586787940346746</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.18894522952946</v>
@@ -46482,7 +46254,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.660287521733881</v>
+        <v>1.575495313919999</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.797265723397189</v>
@@ -46571,7 +46343,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.666141786369373</v>
+        <v>1.570863409665521</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.82386591234913</v>
@@ -46660,7 +46432,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.662285155130016</v>
+        <v>1.56430891388765</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.457794464395677</v>
@@ -46749,7 +46521,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.663038112808125</v>
+        <v>1.564966729951027</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.466472995913788</v>
@@ -46838,7 +46610,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.653127386246603</v>
+        <v>1.558149059698577</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.60469155132309</v>
@@ -46927,7 +46699,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.637082696435375</v>
+        <v>1.560996415390538</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.526263947832491</v>
@@ -47016,7 +46788,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.631883805760283</v>
+        <v>1.566298408212866</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.360523198499787</v>
@@ -47105,7 +46877,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.614531781253784</v>
+        <v>1.555028165161261</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.82079046509812</v>
@@ -47194,7 +46966,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.611554948760751</v>
+        <v>1.552593417704467</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.002094019134355</v>
@@ -47283,7 +47055,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.563839646075325</v>
+        <v>1.517814737114228</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.4017328079808</v>
@@ -47372,7 +47144,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.561354730452116</v>
+        <v>1.520360902238554</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.434678116206907</v>
@@ -47461,7 +47233,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.566011310515299</v>
+        <v>1.522635223913245</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.395356035793117</v>
@@ -47747,7 +47519,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.272012057915574</v>
+        <v>1.248539912251141</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.109221611347971</v>
@@ -47836,7 +47608,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.267643549946197</v>
+        <v>1.243523189177408</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.015085214978061</v>
@@ -47925,7 +47697,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.295011765268634</v>
+        <v>1.267191224414009</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.086072882134029</v>
@@ -48014,7 +47786,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.315515592239599</v>
+        <v>1.289859073051922</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.179018980094059</v>
@@ -48103,7 +47875,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.302391435666025</v>
+        <v>1.276897395179108</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.254232942379849</v>
@@ -48192,7 +47964,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.305069885817304</v>
+        <v>1.275874299839654</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.295734495954695</v>
@@ -48281,7 +48053,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.294206939480535</v>
+        <v>1.265815573345722</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.366337884354788</v>
@@ -48370,7 +48142,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.283613816750427</v>
+        <v>1.25356136585939</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.300860490960198</v>
@@ -48459,7 +48231,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.286234111721107</v>
+        <v>1.257079335234758</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.430296428802579</v>
@@ -48548,7 +48320,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.282742539248036</v>
+        <v>1.25359082953621</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.560137461790308</v>
@@ -48637,7 +48409,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.276905669732375</v>
+        <v>1.249623015824658</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.447479809804349</v>
@@ -48726,7 +48498,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.283567552610834</v>
+        <v>1.254873769239259</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.320625620748394</v>
@@ -48815,7 +48587,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.290597094018778</v>
+        <v>1.255646331311836</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.299039171269193</v>
@@ -48904,7 +48676,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.294063947114102</v>
+        <v>1.254944790417174</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.34215803664974</v>
@@ -48993,7 +48765,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.288790437731487</v>
+        <v>1.250176761696383</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.381256213399412</v>
@@ -49082,7 +48854,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.275361667175308</v>
+        <v>1.233557502132577</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.63313548176665</v>
@@ -49171,7 +48943,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.267313087970758</v>
+        <v>1.225873528766746</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.576804274538521</v>
@@ -49260,7 +49032,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.265809037046481</v>
+        <v>1.225912115981945</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.515176176537447</v>
@@ -49349,7 +49121,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.270811956294926</v>
+        <v>1.228032833618848</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.373843735079451</v>
@@ -49438,7 +49210,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.275297052940281</v>
+        <v>1.237361612003773</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.444506099719758</v>
@@ -49527,7 +49299,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.298111395810378</v>
+        <v>1.257788174935073</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.437922422862165</v>
@@ -49616,7 +49388,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.307447168989517</v>
+        <v>1.270393712619364</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.469127750447532</v>
@@ -49705,7 +49477,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.309132488859301</v>
+        <v>1.275939185764577</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.40479855411536</v>
@@ -49794,7 +49566,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.314949144724919</v>
+        <v>1.280661763344482</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.414257574684343</v>
@@ -49883,7 +49655,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.316512089651647</v>
+        <v>1.280563285595067</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.505191360729669</v>
@@ -49972,7 +49744,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.324780777024129</v>
+        <v>1.281541025134431</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.557435454893191</v>
@@ -50061,7 +49833,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.31481797760398</v>
+        <v>1.274808303044902</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.220733899319487</v>
@@ -50150,7 +49922,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.3085712546733</v>
+        <v>1.27150568214056</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.455495777173434</v>
@@ -50239,7 +50011,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.298301739335046</v>
+        <v>1.260640692237262</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.368723439195301</v>
@@ -50328,7 +50100,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.290962309422622</v>
+        <v>1.25556253107686</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.333739844784827</v>
@@ -50417,7 +50189,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.322216129212052</v>
+        <v>1.284089545646115</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.159902551754671</v>
@@ -50506,7 +50278,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.323926835214065</v>
+        <v>1.288859917776535</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.366331143598663</v>
@@ -50595,7 +50367,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.314851875454569</v>
+        <v>1.278842268153303</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.65437448721588</v>
@@ -50684,7 +50456,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.336031614682855</v>
+        <v>1.302903728004715</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.48383473941413</v>
@@ -50773,7 +50545,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.336431549383801</v>
+        <v>1.299643472921511</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.627658262141673</v>
@@ -50862,7 +50634,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.336437141511112</v>
+        <v>1.29949216762563</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.348868846815789</v>
@@ -50951,7 +50723,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.343339042905329</v>
+        <v>1.303306808527093</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.481144789609479</v>
@@ -51040,7 +50812,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.330532167174061</v>
+        <v>1.292550914675251</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.470510997620595</v>
@@ -51129,7 +50901,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.318539240341275</v>
+        <v>1.277379337864136</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.467104800760399</v>
@@ -51218,7 +50990,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.325453598451166</v>
+        <v>1.285590370129784</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.316796931674616</v>
@@ -51307,7 +51079,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.322348745320001</v>
+        <v>1.280663642195423</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.223211787921201</v>
@@ -51396,7 +51168,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.333215304502225</v>
+        <v>1.291941159537537</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.42255438526167</v>
@@ -51485,7 +51257,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.349424932664671</v>
+        <v>1.308265048148961</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.290748435984836</v>
@@ -51574,7 +51346,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.364737605749096</v>
+        <v>1.319743205378668</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.640704997710788</v>
@@ -51663,7 +51435,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.361021124321824</v>
+        <v>1.32557654221034</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.469124727142017</v>
@@ -51752,7 +51524,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.350767892825397</v>
+        <v>1.314336532153511</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.343918393250191</v>
@@ -51841,7 +51613,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.370814295128426</v>
+        <v>1.32824180956998</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.572688172478129</v>
@@ -51930,7 +51702,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.387958125143564</v>
+        <v>1.344601868501901</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.570606036820439</v>
@@ -52019,7 +51791,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.371318229583928</v>
+        <v>1.329308181387595</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.499703883884246</v>
@@ -52108,7 +51880,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.386575433873979</v>
+        <v>1.345443354379376</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.368345641728729</v>
@@ -52197,7 +51969,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.368733975918934</v>
+        <v>1.32827688431316</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.464493476652287</v>
@@ -52286,7 +52058,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.393060350782015</v>
+        <v>1.351150804246701</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.209826866938952</v>
@@ -52375,7 +52147,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.360161615407933</v>
+        <v>1.32075783386493</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.635353730253565</v>
@@ -52464,7 +52236,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.392017661892079</v>
+        <v>1.352491107800024</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.504440350575358</v>
@@ -52553,7 +52325,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.379716646853281</v>
+        <v>1.342999765770052</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.634444549551941</v>
@@ -52642,7 +52414,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.379207858603533</v>
+        <v>1.349731790785235</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.565277620434862</v>
@@ -52731,7 +52503,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.376061662301256</v>
+        <v>1.35096568232062</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.505394310142023</v>
@@ -52820,7 +52592,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.379503728707576</v>
+        <v>1.350079603298724</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.522847052470841</v>
@@ -52909,7 +52681,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.375111544214046</v>
+        <v>1.347158884740227</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.405406265548358</v>
@@ -52998,7 +52770,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.351097068923444</v>
+        <v>1.319218233343031</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.61209058407439</v>
@@ -53087,7 +52859,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.359969018311869</v>
+        <v>1.328241503960596</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.54413755965156</v>
@@ -53176,7 +52948,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.350844035538099</v>
+        <v>1.323951837814676</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.422713804258098</v>
@@ -53265,7 +53037,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.339334095966928</v>
+        <v>1.309006321467404</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.430131290820724</v>
@@ -53354,7 +53126,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.322103846692698</v>
+        <v>1.292949306583547</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.484123796698428</v>
@@ -53443,7 +53215,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.310059118431931</v>
+        <v>1.277283055384385</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.332896308401185</v>
@@ -53532,7 +53304,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.313783211597856</v>
+        <v>1.283959197546182</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.459806638176464</v>
@@ -53621,7 +53393,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.308368584000184</v>
+        <v>1.277631985208888</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.516076623255571</v>
@@ -53710,7 +53482,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.322762865428347</v>
+        <v>1.291631132161658</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.395233297563421</v>
@@ -53799,7 +53571,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.3106857426845</v>
+        <v>1.276596551544093</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.480063242474308</v>
@@ -53888,7 +53660,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.320553776345844</v>
+        <v>1.27883073964106</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.229843747172889</v>
@@ -53977,7 +53749,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.33309111981925</v>
+        <v>1.284538970929792</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.425980095783019</v>
@@ -54066,7 +53838,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.333233198417913</v>
+        <v>1.283188887025073</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.486711844865095</v>
@@ -54155,7 +53927,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.351820839676251</v>
+        <v>1.29586030837564</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.59503457230896</v>
@@ -54244,7 +54016,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.360307766470245</v>
+        <v>1.303755201738775</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.403263779320432</v>
@@ -54333,7 +54105,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.342956546240611</v>
+        <v>1.291166567030183</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.403933790265977</v>
@@ -54422,7 +54194,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.338138604405769</v>
+        <v>1.28460135086726</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.348049765981758</v>
@@ -54511,7 +54283,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.334033345084689</v>
+        <v>1.289129806458762</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.447182704596859</v>
@@ -54600,7 +54372,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.352036828396003</v>
+        <v>1.302855657328476</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.364843595974641</v>
@@ -54689,7 +54461,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.352407330428473</v>
+        <v>1.307045455160401</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.276799678148171</v>
@@ -54778,7 +54550,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.384029786083744</v>
+        <v>1.338773078270223</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.415289103840187</v>
@@ -54867,7 +54639,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.397882293808113</v>
+        <v>1.348515422026961</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.396455723337283</v>
